--- a/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D309C664-A1C4-4EBE-BA55-84409DD332BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB0F616-0DCD-4355-B689-CC745E878D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 9 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1531,41 +1531,41 @@
       <c r="AF11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>58</v>
+      <c r="AG11" s="11">
+        <v>11879</v>
       </c>
       <c r="AH11" s="11">
-        <v>11879</v>
+        <v>5177</v>
       </c>
       <c r="AI11" s="11">
-        <v>5177</v>
-      </c>
-      <c r="AJ11" s="11">
         <v>4186</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AJ11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
       </c>
-      <c r="AM11" s="11">
-        <v>0</v>
+      <c r="AM11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
@@ -1576,11 +1576,11 @@
       <c r="AU11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>58</v>
+      <c r="AV11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>0</v>
       </c>
       <c r="AX11" s="11">
         <v>0</v>
@@ -1732,29 +1732,29 @@
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
+      <c r="AU12" s="13">
+        <v>77132</v>
       </c>
       <c r="AV12" s="13">
-        <v>77132</v>
+        <v>91478</v>
       </c>
       <c r="AW12" s="13">
-        <v>91478</v>
+        <v>156004</v>
       </c>
       <c r="AX12" s="13">
-        <v>156004</v>
+        <v>161879</v>
       </c>
       <c r="AY12" s="13">
-        <v>161879</v>
+        <v>111532</v>
       </c>
       <c r="AZ12" s="13">
-        <v>111532</v>
+        <v>103477</v>
       </c>
       <c r="BA12" s="13">
-        <v>103477</v>
+        <v>146554</v>
       </c>
       <c r="BB12" s="13">
-        <v>146554</v>
+        <v>88487</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1849,41 +1849,41 @@
       <c r="AF13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG13" s="11" t="s">
-        <v>58</v>
+      <c r="AG13" s="11">
+        <v>112537</v>
       </c>
       <c r="AH13" s="11">
-        <v>112537</v>
+        <v>91717</v>
       </c>
       <c r="AI13" s="11">
-        <v>91717</v>
+        <v>75379</v>
       </c>
       <c r="AJ13" s="11">
-        <v>75379</v>
+        <v>77229</v>
       </c>
       <c r="AK13" s="11">
-        <v>77229</v>
+        <v>32425</v>
       </c>
       <c r="AL13" s="11">
-        <v>32425</v>
+        <v>35809</v>
       </c>
       <c r="AM13" s="11">
-        <v>35809</v>
+        <v>64462</v>
       </c>
       <c r="AN13" s="11">
-        <v>64462</v>
+        <v>24634</v>
       </c>
       <c r="AO13" s="11">
-        <v>24634</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>0</v>
       </c>
       <c r="AS13" s="11" t="s">
         <v>58</v>
@@ -2008,41 +2008,41 @@
       <c r="AF14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="13" t="s">
-        <v>58</v>
+      <c r="AG14" s="13">
+        <v>33927</v>
       </c>
       <c r="AH14" s="13">
-        <v>33927</v>
+        <v>53361</v>
       </c>
       <c r="AI14" s="13">
-        <v>53361</v>
+        <v>59335</v>
       </c>
       <c r="AJ14" s="13">
-        <v>59335</v>
+        <v>59420</v>
       </c>
       <c r="AK14" s="13">
-        <v>59420</v>
+        <v>41286</v>
       </c>
       <c r="AL14" s="13">
-        <v>41286</v>
+        <v>30888</v>
       </c>
       <c r="AM14" s="13">
-        <v>30888</v>
+        <v>39978</v>
       </c>
       <c r="AN14" s="13">
-        <v>39978</v>
+        <v>23040</v>
       </c>
       <c r="AO14" s="13">
-        <v>23040</v>
+        <v>7171</v>
       </c>
       <c r="AP14" s="13">
-        <v>7171</v>
+        <v>6767</v>
       </c>
       <c r="AQ14" s="13">
-        <v>6767</v>
+        <v>3835</v>
       </c>
       <c r="AR14" s="13">
-        <v>3835</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>58</v>
@@ -2203,14 +2203,14 @@
       <c r="AR15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AS15" s="11">
+        <v>73590</v>
       </c>
       <c r="AT15" s="11">
-        <v>73590</v>
-      </c>
-      <c r="AU15" s="11">
         <v>123612</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV15" s="11" t="s">
         <v>58</v>
@@ -2359,11 +2359,11 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13">
+      <c r="AR16" s="13">
         <v>97193</v>
+      </c>
+      <c r="AS16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>58</v>
@@ -2506,20 +2506,20 @@
       <c r="AM17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11">
+      <c r="AN17" s="11">
         <v>86828</v>
       </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>97761</v>
       </c>
       <c r="AQ17" s="11">
-        <v>97761</v>
-      </c>
-      <c r="AR17" s="11">
         <v>129978</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>58</v>
@@ -2643,70 +2643,70 @@
         <v>0</v>
       </c>
       <c r="AG18" s="15">
-        <v>0</v>
+        <v>158343</v>
       </c>
       <c r="AH18" s="15">
-        <v>158343</v>
+        <v>150255</v>
       </c>
       <c r="AI18" s="15">
-        <v>150255</v>
+        <v>138900</v>
       </c>
       <c r="AJ18" s="15">
-        <v>138900</v>
+        <v>136649</v>
       </c>
       <c r="AK18" s="15">
-        <v>136649</v>
+        <v>73711</v>
       </c>
       <c r="AL18" s="15">
-        <v>73711</v>
+        <v>66697</v>
       </c>
       <c r="AM18" s="15">
-        <v>66697</v>
+        <v>104440</v>
       </c>
       <c r="AN18" s="15">
-        <v>104440</v>
+        <v>134502</v>
       </c>
       <c r="AO18" s="15">
-        <v>134502</v>
+        <v>7171</v>
       </c>
       <c r="AP18" s="15">
-        <v>7171</v>
+        <v>104528</v>
       </c>
       <c r="AQ18" s="15">
-        <v>104528</v>
+        <v>133813</v>
       </c>
       <c r="AR18" s="15">
-        <v>133813</v>
+        <v>97193</v>
       </c>
       <c r="AS18" s="15">
-        <v>97193</v>
+        <v>73590</v>
       </c>
       <c r="AT18" s="15">
-        <v>73590</v>
+        <v>123612</v>
       </c>
       <c r="AU18" s="15">
-        <v>123612</v>
+        <v>77132</v>
       </c>
       <c r="AV18" s="15">
-        <v>77132</v>
+        <v>91478</v>
       </c>
       <c r="AW18" s="15">
-        <v>91478</v>
+        <v>156004</v>
       </c>
       <c r="AX18" s="15">
-        <v>156004</v>
+        <v>161879</v>
       </c>
       <c r="AY18" s="15">
-        <v>161879</v>
+        <v>111532</v>
       </c>
       <c r="AZ18" s="15">
-        <v>111532</v>
+        <v>103477</v>
       </c>
       <c r="BA18" s="15">
-        <v>103477</v>
+        <v>146554</v>
       </c>
       <c r="BB18" s="15">
-        <v>146554</v>
+        <v>88487</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2858,71 +2858,71 @@
       <c r="AF20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG20" s="11" t="s">
-        <v>58</v>
+      <c r="AG20" s="11">
+        <v>43027</v>
       </c>
       <c r="AH20" s="11">
-        <v>43027</v>
+        <v>10702</v>
       </c>
       <c r="AI20" s="11">
-        <v>10702</v>
+        <v>13611</v>
       </c>
       <c r="AJ20" s="11">
-        <v>13611</v>
+        <v>38993</v>
       </c>
       <c r="AK20" s="11">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL20" s="11">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM20" s="11">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN20" s="11">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO20" s="11">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP20" s="11">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ20" s="11">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR20" s="11">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS20" s="11">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT20" s="11">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU20" s="11">
-        <v>92242</v>
-      </c>
-      <c r="AV20" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="11">
+        <v>64338</v>
       </c>
       <c r="AW20" s="11">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX20" s="11">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY20" s="11">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ20" s="11">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA20" s="11">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB20" s="11">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3017,8 +3017,8 @@
       <c r="AF21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG21" s="13" t="s">
-        <v>58</v>
+      <c r="AG21" s="13">
+        <v>0</v>
       </c>
       <c r="AH21" s="13">
         <v>0</v>
@@ -3026,8 +3026,8 @@
       <c r="AI21" s="13">
         <v>0</v>
       </c>
-      <c r="AJ21" s="13">
-        <v>0</v>
+      <c r="AJ21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>58</v>
@@ -3050,8 +3050,8 @@
       <c r="AQ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="13" t="s">
-        <v>58</v>
+      <c r="AR21" s="13">
+        <v>0</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>58</v>
@@ -3176,8 +3176,8 @@
       <c r="AF22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG22" s="11" t="s">
-        <v>58</v>
+      <c r="AG22" s="11">
+        <v>0</v>
       </c>
       <c r="AH22" s="11">
         <v>0</v>
@@ -3185,8 +3185,8 @@
       <c r="AI22" s="11">
         <v>0</v>
       </c>
-      <c r="AJ22" s="11">
-        <v>0</v>
+      <c r="AJ22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="11" t="s">
         <v>58</v>
@@ -3209,8 +3209,8 @@
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11">
+        <v>0</v>
       </c>
       <c r="AS22" s="11" t="s">
         <v>58</v>
@@ -3334,70 +3334,70 @@
         <v>0</v>
       </c>
       <c r="AG23" s="15">
-        <v>0</v>
+        <v>43027</v>
       </c>
       <c r="AH23" s="15">
-        <v>43027</v>
+        <v>10702</v>
       </c>
       <c r="AI23" s="15">
-        <v>10702</v>
+        <v>13611</v>
       </c>
       <c r="AJ23" s="15">
-        <v>13611</v>
+        <v>38993</v>
       </c>
       <c r="AK23" s="15">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL23" s="15">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM23" s="15">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN23" s="15">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO23" s="15">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP23" s="15">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ23" s="15">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR23" s="15">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS23" s="15">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT23" s="15">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU23" s="15">
-        <v>92242</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="15">
-        <v>0</v>
+        <v>64338</v>
       </c>
       <c r="AW23" s="15">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX23" s="15">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY23" s="15">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ23" s="15">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA23" s="15">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB23" s="15">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3547,8 +3547,8 @@
       <c r="AF25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG25" s="19" t="s">
-        <v>58</v>
+      <c r="AG25" s="19">
+        <v>0</v>
       </c>
       <c r="AH25" s="19">
         <v>0</v>
@@ -3705,70 +3705,70 @@
         <v>0</v>
       </c>
       <c r="AG26" s="15">
-        <v>0</v>
+        <v>201370</v>
       </c>
       <c r="AH26" s="15">
-        <v>201370</v>
+        <v>160957</v>
       </c>
       <c r="AI26" s="15">
-        <v>160957</v>
+        <v>152511</v>
       </c>
       <c r="AJ26" s="15">
-        <v>152511</v>
+        <v>175642</v>
       </c>
       <c r="AK26" s="15">
-        <v>175642</v>
+        <v>74150</v>
       </c>
       <c r="AL26" s="15">
-        <v>74150</v>
+        <v>82823</v>
       </c>
       <c r="AM26" s="15">
-        <v>82823</v>
+        <v>136090</v>
       </c>
       <c r="AN26" s="15">
-        <v>136090</v>
+        <v>138272</v>
       </c>
       <c r="AO26" s="15">
-        <v>138272</v>
+        <v>20636</v>
       </c>
       <c r="AP26" s="15">
-        <v>20636</v>
+        <v>105097</v>
       </c>
       <c r="AQ26" s="15">
-        <v>105097</v>
+        <v>190613</v>
       </c>
       <c r="AR26" s="15">
-        <v>190613</v>
+        <v>154279</v>
       </c>
       <c r="AS26" s="15">
-        <v>154279</v>
+        <v>89542</v>
       </c>
       <c r="AT26" s="15">
-        <v>89542</v>
+        <v>215854</v>
       </c>
       <c r="AU26" s="15">
-        <v>215854</v>
+        <v>77132</v>
       </c>
       <c r="AV26" s="15">
-        <v>77132</v>
+        <v>155816</v>
       </c>
       <c r="AW26" s="15">
-        <v>155816</v>
+        <v>243833</v>
       </c>
       <c r="AX26" s="15">
-        <v>243833</v>
+        <v>175398</v>
       </c>
       <c r="AY26" s="15">
-        <v>175398</v>
+        <v>186778</v>
       </c>
       <c r="AZ26" s="15">
-        <v>186778</v>
+        <v>121929</v>
       </c>
       <c r="BA26" s="15">
-        <v>121929</v>
+        <v>147267</v>
       </c>
       <c r="BB26" s="15">
-        <v>147267</v>
+        <v>136916</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4297,41 +4297,41 @@
       <c r="AF33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG33" s="11" t="s">
-        <v>58</v>
+      <c r="AG33" s="11">
+        <v>11879</v>
       </c>
       <c r="AH33" s="11">
-        <v>11879</v>
+        <v>5177</v>
       </c>
       <c r="AI33" s="11">
-        <v>5177</v>
-      </c>
-      <c r="AJ33" s="11">
         <v>4186</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AJ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>0</v>
       </c>
       <c r="AL33" s="11">
         <v>0</v>
       </c>
-      <c r="AM33" s="11">
-        <v>0</v>
+      <c r="AM33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>0</v>
+      <c r="AO33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>0</v>
       </c>
       <c r="AS33" s="11" t="s">
         <v>58</v>
@@ -4342,11 +4342,11 @@
       <c r="AU33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW33" s="11" t="s">
-        <v>58</v>
+      <c r="AV33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>0</v>
       </c>
       <c r="AX33" s="11">
         <v>0</v>
@@ -4498,29 +4498,29 @@
       <c r="AT34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU34" s="13" t="s">
-        <v>58</v>
+      <c r="AU34" s="13">
+        <v>76291</v>
       </c>
       <c r="AV34" s="13">
-        <v>76291</v>
+        <v>93129</v>
       </c>
       <c r="AW34" s="13">
-        <v>93129</v>
+        <v>153154</v>
       </c>
       <c r="AX34" s="13">
-        <v>153154</v>
+        <v>162178</v>
       </c>
       <c r="AY34" s="13">
-        <v>162178</v>
+        <v>107706</v>
       </c>
       <c r="AZ34" s="13">
-        <v>107706</v>
+        <v>112176</v>
       </c>
       <c r="BA34" s="13">
-        <v>112176</v>
+        <v>106193</v>
       </c>
       <c r="BB34" s="13">
-        <v>106193</v>
+        <v>93678</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4615,41 +4615,41 @@
       <c r="AF35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG35" s="11" t="s">
-        <v>58</v>
+      <c r="AG35" s="11">
+        <v>69085</v>
       </c>
       <c r="AH35" s="11">
-        <v>69085</v>
+        <v>96067</v>
       </c>
       <c r="AI35" s="11">
-        <v>96067</v>
+        <v>75754</v>
       </c>
       <c r="AJ35" s="11">
-        <v>75754</v>
+        <v>68454</v>
       </c>
       <c r="AK35" s="11">
-        <v>68454</v>
+        <v>43676</v>
       </c>
       <c r="AL35" s="11">
-        <v>43676</v>
+        <v>32359</v>
       </c>
       <c r="AM35" s="11">
-        <v>32359</v>
+        <v>61312</v>
       </c>
       <c r="AN35" s="11">
-        <v>61312</v>
+        <v>21184</v>
       </c>
       <c r="AO35" s="11">
-        <v>21184</v>
+        <v>395</v>
       </c>
       <c r="AP35" s="11">
-        <v>395</v>
-      </c>
-      <c r="AQ35" s="11">
         <v>151</v>
       </c>
-      <c r="AR35" s="11" t="s">
-        <v>58</v>
+      <c r="AQ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>0</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>58</v>
@@ -4774,41 +4774,41 @@
       <c r="AF36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG36" s="13" t="s">
-        <v>58</v>
+      <c r="AG36" s="13">
+        <v>33927</v>
       </c>
       <c r="AH36" s="13">
-        <v>33927</v>
+        <v>53361</v>
       </c>
       <c r="AI36" s="13">
-        <v>53361</v>
+        <v>59335</v>
       </c>
       <c r="AJ36" s="13">
-        <v>59335</v>
+        <v>59420</v>
       </c>
       <c r="AK36" s="13">
-        <v>59420</v>
+        <v>41286</v>
       </c>
       <c r="AL36" s="13">
-        <v>41286</v>
+        <v>30888</v>
       </c>
       <c r="AM36" s="13">
-        <v>30888</v>
+        <v>39978</v>
       </c>
       <c r="AN36" s="13">
-        <v>39978</v>
+        <v>23040</v>
       </c>
       <c r="AO36" s="13">
-        <v>23040</v>
+        <v>7171</v>
       </c>
       <c r="AP36" s="13">
-        <v>7171</v>
+        <v>6767</v>
       </c>
       <c r="AQ36" s="13">
-        <v>6767</v>
+        <v>3835</v>
       </c>
       <c r="AR36" s="13">
-        <v>3835</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>58</v>
@@ -4969,14 +4969,14 @@
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AS37" s="11">
+        <v>71579</v>
       </c>
       <c r="AT37" s="11">
-        <v>71579</v>
-      </c>
-      <c r="AU37" s="11">
         <v>124213</v>
+      </c>
+      <c r="AU37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>58</v>
@@ -5125,11 +5125,11 @@
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="13">
+      <c r="AR38" s="13">
         <v>96295</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT38" s="13" t="s">
         <v>58</v>
@@ -5272,20 +5272,20 @@
       <c r="AM39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO39" s="11">
+      <c r="AN39" s="11">
         <v>86828</v>
       </c>
-      <c r="AP39" s="11" t="s">
-        <v>58</v>
+      <c r="AO39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>100910</v>
       </c>
       <c r="AQ39" s="11">
-        <v>100910</v>
-      </c>
-      <c r="AR39" s="11">
         <v>128477</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS39" s="11" t="s">
         <v>58</v>
@@ -5409,70 +5409,70 @@
         <v>0</v>
       </c>
       <c r="AG40" s="15">
-        <v>0</v>
+        <v>114891</v>
       </c>
       <c r="AH40" s="15">
-        <v>114891</v>
+        <v>154605</v>
       </c>
       <c r="AI40" s="15">
-        <v>154605</v>
+        <v>139275</v>
       </c>
       <c r="AJ40" s="15">
-        <v>139275</v>
+        <v>127874</v>
       </c>
       <c r="AK40" s="15">
-        <v>127874</v>
+        <v>84962</v>
       </c>
       <c r="AL40" s="15">
-        <v>84962</v>
+        <v>63247</v>
       </c>
       <c r="AM40" s="15">
-        <v>63247</v>
+        <v>101290</v>
       </c>
       <c r="AN40" s="15">
-        <v>101290</v>
+        <v>131052</v>
       </c>
       <c r="AO40" s="15">
-        <v>131052</v>
+        <v>7566</v>
       </c>
       <c r="AP40" s="15">
-        <v>7566</v>
+        <v>107828</v>
       </c>
       <c r="AQ40" s="15">
-        <v>107828</v>
+        <v>132312</v>
       </c>
       <c r="AR40" s="15">
-        <v>132312</v>
+        <v>96295</v>
       </c>
       <c r="AS40" s="15">
-        <v>96295</v>
+        <v>71579</v>
       </c>
       <c r="AT40" s="15">
-        <v>71579</v>
+        <v>124213</v>
       </c>
       <c r="AU40" s="15">
-        <v>124213</v>
+        <v>76291</v>
       </c>
       <c r="AV40" s="15">
-        <v>76291</v>
+        <v>93129</v>
       </c>
       <c r="AW40" s="15">
-        <v>93129</v>
+        <v>153154</v>
       </c>
       <c r="AX40" s="15">
-        <v>153154</v>
+        <v>162178</v>
       </c>
       <c r="AY40" s="15">
-        <v>162178</v>
+        <v>107706</v>
       </c>
       <c r="AZ40" s="15">
-        <v>107706</v>
+        <v>112176</v>
       </c>
       <c r="BA40" s="15">
-        <v>112176</v>
+        <v>106193</v>
       </c>
       <c r="BB40" s="15">
-        <v>106193</v>
+        <v>93678</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5624,71 +5624,71 @@
       <c r="AF42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG42" s="11" t="s">
-        <v>58</v>
+      <c r="AG42" s="11">
+        <v>43027</v>
       </c>
       <c r="AH42" s="11">
-        <v>43027</v>
+        <v>10702</v>
       </c>
       <c r="AI42" s="11">
-        <v>10702</v>
+        <v>13611</v>
       </c>
       <c r="AJ42" s="11">
-        <v>13611</v>
+        <v>38993</v>
       </c>
       <c r="AK42" s="11">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL42" s="11">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM42" s="11">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN42" s="11">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO42" s="11">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP42" s="11">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ42" s="11">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR42" s="11">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS42" s="11">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT42" s="11">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU42" s="11">
-        <v>92242</v>
-      </c>
-      <c r="AV42" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV42" s="11">
+        <v>64338</v>
       </c>
       <c r="AW42" s="11">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX42" s="11">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY42" s="11">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ42" s="11">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA42" s="11">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB42" s="11">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5783,8 +5783,8 @@
       <c r="AF43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG43" s="13" t="s">
-        <v>58</v>
+      <c r="AG43" s="13">
+        <v>0</v>
       </c>
       <c r="AH43" s="13">
         <v>0</v>
@@ -5792,8 +5792,8 @@
       <c r="AI43" s="13">
         <v>0</v>
       </c>
-      <c r="AJ43" s="13">
-        <v>0</v>
+      <c r="AJ43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK43" s="13" t="s">
         <v>58</v>
@@ -5816,8 +5816,8 @@
       <c r="AQ43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="13" t="s">
-        <v>58</v>
+      <c r="AR43" s="13">
+        <v>0</v>
       </c>
       <c r="AS43" s="13" t="s">
         <v>58</v>
@@ -5942,8 +5942,8 @@
       <c r="AF44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG44" s="11" t="s">
-        <v>58</v>
+      <c r="AG44" s="11">
+        <v>0</v>
       </c>
       <c r="AH44" s="11">
         <v>0</v>
@@ -5951,8 +5951,8 @@
       <c r="AI44" s="11">
         <v>0</v>
       </c>
-      <c r="AJ44" s="11">
-        <v>0</v>
+      <c r="AJ44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK44" s="11" t="s">
         <v>58</v>
@@ -5975,8 +5975,8 @@
       <c r="AQ44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="11" t="s">
-        <v>58</v>
+      <c r="AR44" s="11">
+        <v>0</v>
       </c>
       <c r="AS44" s="11" t="s">
         <v>58</v>
@@ -6100,70 +6100,70 @@
         <v>0</v>
       </c>
       <c r="AG45" s="15">
-        <v>0</v>
+        <v>43027</v>
       </c>
       <c r="AH45" s="15">
-        <v>43027</v>
+        <v>10702</v>
       </c>
       <c r="AI45" s="15">
-        <v>10702</v>
+        <v>13611</v>
       </c>
       <c r="AJ45" s="15">
-        <v>13611</v>
+        <v>38993</v>
       </c>
       <c r="AK45" s="15">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL45" s="15">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM45" s="15">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN45" s="15">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO45" s="15">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP45" s="15">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ45" s="15">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR45" s="15">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS45" s="15">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT45" s="15">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU45" s="15">
-        <v>92242</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="15">
-        <v>0</v>
+        <v>64338</v>
       </c>
       <c r="AW45" s="15">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX45" s="15">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY45" s="15">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ45" s="15">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA45" s="15">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB45" s="15">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6313,8 +6313,8 @@
       <c r="AF47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="19" t="s">
-        <v>58</v>
+      <c r="AG47" s="19">
+        <v>0</v>
       </c>
       <c r="AH47" s="19">
         <v>0</v>
@@ -6527,8 +6527,8 @@
       <c r="AF49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG49" s="19" t="s">
-        <v>58</v>
+      <c r="AG49" s="19">
+        <v>0</v>
       </c>
       <c r="AH49" s="19">
         <v>0</v>
@@ -6685,70 +6685,70 @@
         <v>0</v>
       </c>
       <c r="AG50" s="15">
-        <v>0</v>
+        <v>157918</v>
       </c>
       <c r="AH50" s="15">
-        <v>157918</v>
+        <v>165307</v>
       </c>
       <c r="AI50" s="15">
-        <v>165307</v>
+        <v>152886</v>
       </c>
       <c r="AJ50" s="15">
-        <v>152886</v>
+        <v>166867</v>
       </c>
       <c r="AK50" s="15">
-        <v>166867</v>
+        <v>85401</v>
       </c>
       <c r="AL50" s="15">
-        <v>85401</v>
+        <v>79373</v>
       </c>
       <c r="AM50" s="15">
-        <v>79373</v>
+        <v>132940</v>
       </c>
       <c r="AN50" s="15">
-        <v>132940</v>
+        <v>134822</v>
       </c>
       <c r="AO50" s="15">
-        <v>134822</v>
+        <v>21031</v>
       </c>
       <c r="AP50" s="15">
-        <v>21031</v>
+        <v>108397</v>
       </c>
       <c r="AQ50" s="15">
-        <v>108397</v>
+        <v>189112</v>
       </c>
       <c r="AR50" s="15">
-        <v>189112</v>
+        <v>153381</v>
       </c>
       <c r="AS50" s="15">
-        <v>153381</v>
+        <v>87531</v>
       </c>
       <c r="AT50" s="15">
-        <v>87531</v>
+        <v>216455</v>
       </c>
       <c r="AU50" s="15">
-        <v>216455</v>
+        <v>76291</v>
       </c>
       <c r="AV50" s="15">
-        <v>76291</v>
+        <v>157467</v>
       </c>
       <c r="AW50" s="15">
-        <v>157467</v>
+        <v>240983</v>
       </c>
       <c r="AX50" s="15">
-        <v>240983</v>
+        <v>175697</v>
       </c>
       <c r="AY50" s="15">
-        <v>175697</v>
+        <v>182952</v>
       </c>
       <c r="AZ50" s="15">
-        <v>182952</v>
+        <v>130628</v>
       </c>
       <c r="BA50" s="15">
-        <v>130628</v>
+        <v>106906</v>
       </c>
       <c r="BB50" s="15">
-        <v>106906</v>
+        <v>142107</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7277,17 +7277,17 @@
       <c r="AF57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG57" s="11" t="s">
-        <v>58</v>
+      <c r="AG57" s="11">
+        <v>14276</v>
       </c>
       <c r="AH57" s="11">
-        <v>14276</v>
+        <v>6221</v>
       </c>
       <c r="AI57" s="11">
-        <v>6221</v>
+        <v>5031</v>
       </c>
       <c r="AJ57" s="11">
-        <v>5031</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="11">
         <v>0</v>
@@ -7319,11 +7319,11 @@
       <c r="AT57" s="11">
         <v>0</v>
       </c>
-      <c r="AU57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV57" s="11" t="s">
-        <v>58</v>
+      <c r="AU57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV57" s="11">
+        <v>0</v>
       </c>
       <c r="AW57" s="11">
         <v>0</v>
@@ -7478,29 +7478,29 @@
       <c r="AT58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU58" s="13" t="s">
-        <v>58</v>
+      <c r="AU58" s="13">
+        <v>385179</v>
       </c>
       <c r="AV58" s="13">
-        <v>385179</v>
+        <v>470299</v>
       </c>
       <c r="AW58" s="13">
-        <v>470299</v>
+        <v>866648</v>
       </c>
       <c r="AX58" s="13">
-        <v>866648</v>
+        <v>1228034</v>
       </c>
       <c r="AY58" s="13">
-        <v>1228035</v>
+        <v>727088</v>
       </c>
       <c r="AZ58" s="13">
-        <v>727087</v>
+        <v>733608</v>
       </c>
       <c r="BA58" s="13">
-        <v>733608</v>
+        <v>669095</v>
       </c>
       <c r="BB58" s="13">
-        <v>669095</v>
+        <v>574762</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7595,44 +7595,44 @@
       <c r="AF59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG59" s="11" t="s">
-        <v>58</v>
+      <c r="AG59" s="11">
+        <v>153697</v>
       </c>
       <c r="AH59" s="11">
-        <v>153697</v>
+        <v>212570</v>
       </c>
       <c r="AI59" s="11">
-        <v>212570</v>
+        <v>170762</v>
       </c>
       <c r="AJ59" s="11">
-        <v>170762</v>
+        <v>213243</v>
       </c>
       <c r="AK59" s="11">
-        <v>213243</v>
+        <v>134816</v>
       </c>
       <c r="AL59" s="11">
-        <v>134816</v>
+        <v>101850</v>
       </c>
       <c r="AM59" s="11">
-        <v>101850</v>
+        <v>210292</v>
       </c>
       <c r="AN59" s="11">
-        <v>210292</v>
+        <v>75799</v>
       </c>
       <c r="AO59" s="11">
-        <v>75799</v>
+        <v>1532</v>
       </c>
       <c r="AP59" s="11">
-        <v>1532</v>
+        <v>413</v>
       </c>
       <c r="AQ59" s="11">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="11">
         <v>0</v>
       </c>
-      <c r="AS59" s="11">
-        <v>0</v>
+      <c r="AS59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT59" s="11" t="s">
         <v>58</v>
@@ -7754,44 +7754,44 @@
       <c r="AF60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG60" s="13" t="s">
-        <v>58</v>
+      <c r="AG60" s="13">
+        <v>109104</v>
       </c>
       <c r="AH60" s="13">
-        <v>109104</v>
+        <v>170884</v>
       </c>
       <c r="AI60" s="13">
-        <v>170884</v>
+        <v>199951</v>
       </c>
       <c r="AJ60" s="13">
-        <v>199951</v>
+        <v>258438</v>
       </c>
       <c r="AK60" s="13">
-        <v>258438</v>
+        <v>179961</v>
       </c>
       <c r="AL60" s="13">
-        <v>179961</v>
+        <v>136185</v>
       </c>
       <c r="AM60" s="13">
-        <v>136185</v>
+        <v>180893</v>
       </c>
       <c r="AN60" s="13">
-        <v>180893</v>
+        <v>115569</v>
       </c>
       <c r="AO60" s="13">
-        <v>115569</v>
+        <v>38574</v>
       </c>
       <c r="AP60" s="13">
-        <v>38574</v>
+        <v>36676</v>
       </c>
       <c r="AQ60" s="13">
-        <v>36676</v>
+        <v>21180</v>
       </c>
       <c r="AR60" s="13">
-        <v>21180</v>
-      </c>
-      <c r="AS60" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT60" s="13" t="s">
         <v>58</v>
@@ -7949,14 +7949,14 @@
       <c r="AR61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS61" s="11" t="s">
-        <v>58</v>
+      <c r="AS61" s="11">
+        <v>299657</v>
       </c>
       <c r="AT61" s="11">
-        <v>299657</v>
-      </c>
-      <c r="AU61" s="11">
         <v>588651</v>
+      </c>
+      <c r="AU61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>58</v>
@@ -8105,11 +8105,11 @@
       <c r="AQ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS62" s="13">
+      <c r="AR62" s="13">
         <v>340894</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>58</v>
@@ -8252,20 +8252,20 @@
       <c r="AM63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO63" s="11">
+      <c r="AN63" s="11">
         <v>385195</v>
       </c>
-      <c r="AP63" s="11" t="s">
-        <v>58</v>
+      <c r="AO63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP63" s="11">
+        <v>389219</v>
       </c>
       <c r="AQ63" s="11">
-        <v>389219</v>
-      </c>
-      <c r="AR63" s="11">
         <v>512433</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS63" s="11" t="s">
         <v>58</v>
@@ -8389,70 +8389,70 @@
         <v>0</v>
       </c>
       <c r="AG64" s="15">
-        <v>0</v>
+        <v>277077</v>
       </c>
       <c r="AH64" s="15">
-        <v>277077</v>
+        <v>389675</v>
       </c>
       <c r="AI64" s="15">
-        <v>389675</v>
+        <v>375744</v>
       </c>
       <c r="AJ64" s="15">
-        <v>375744</v>
+        <v>471681</v>
       </c>
       <c r="AK64" s="15">
-        <v>471681</v>
+        <v>314777</v>
       </c>
       <c r="AL64" s="15">
-        <v>314777</v>
+        <v>238035</v>
       </c>
       <c r="AM64" s="15">
-        <v>238035</v>
+        <v>391185</v>
       </c>
       <c r="AN64" s="15">
-        <v>391185</v>
+        <v>576563</v>
       </c>
       <c r="AO64" s="15">
-        <v>576563</v>
+        <v>40106</v>
       </c>
       <c r="AP64" s="15">
-        <v>40106</v>
+        <v>426308</v>
       </c>
       <c r="AQ64" s="15">
-        <v>426308</v>
+        <v>533613</v>
       </c>
       <c r="AR64" s="15">
-        <v>533613</v>
+        <v>340894</v>
       </c>
       <c r="AS64" s="15">
-        <v>340894</v>
+        <v>299657</v>
       </c>
       <c r="AT64" s="15">
-        <v>299657</v>
+        <v>588651</v>
       </c>
       <c r="AU64" s="15">
-        <v>588651</v>
+        <v>385179</v>
       </c>
       <c r="AV64" s="15">
-        <v>385179</v>
+        <v>470299</v>
       </c>
       <c r="AW64" s="15">
-        <v>470299</v>
+        <v>866648</v>
       </c>
       <c r="AX64" s="15">
-        <v>866648</v>
+        <v>1228034</v>
       </c>
       <c r="AY64" s="15">
-        <v>1228035</v>
+        <v>727088</v>
       </c>
       <c r="AZ64" s="15">
-        <v>727087</v>
+        <v>733608</v>
       </c>
       <c r="BA64" s="15">
-        <v>733608</v>
+        <v>669095</v>
       </c>
       <c r="BB64" s="15">
-        <v>669095</v>
+        <v>574762</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8604,71 +8604,71 @@
       <c r="AF66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG66" s="11" t="s">
-        <v>58</v>
+      <c r="AG66" s="11">
+        <v>210693</v>
       </c>
       <c r="AH66" s="11">
-        <v>210693</v>
+        <v>47940</v>
       </c>
       <c r="AI66" s="11">
-        <v>47940</v>
+        <v>60971</v>
       </c>
       <c r="AJ66" s="11">
-        <v>60971</v>
+        <v>181574</v>
       </c>
       <c r="AK66" s="11">
-        <v>181574</v>
+        <v>1870</v>
       </c>
       <c r="AL66" s="11">
-        <v>1870</v>
+        <v>83704</v>
       </c>
       <c r="AM66" s="11">
-        <v>83704</v>
+        <v>185645</v>
       </c>
       <c r="AN66" s="11">
-        <v>185645</v>
+        <v>17978</v>
       </c>
       <c r="AO66" s="11">
-        <v>17978</v>
+        <v>66588</v>
       </c>
       <c r="AP66" s="11">
-        <v>66588</v>
+        <v>3076</v>
       </c>
       <c r="AQ66" s="11">
-        <v>3076</v>
+        <v>295166</v>
       </c>
       <c r="AR66" s="11">
-        <v>295166</v>
+        <v>319516</v>
       </c>
       <c r="AS66" s="11">
-        <v>319516</v>
+        <v>93227</v>
       </c>
       <c r="AT66" s="11">
-        <v>93227</v>
+        <v>508590</v>
       </c>
       <c r="AU66" s="11">
-        <v>508590</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="11">
-        <v>0</v>
+        <v>379690</v>
       </c>
       <c r="AW66" s="11">
-        <v>379690</v>
+        <v>574384</v>
       </c>
       <c r="AX66" s="11">
-        <v>574384</v>
+        <v>91125</v>
       </c>
       <c r="AY66" s="11">
-        <v>91125</v>
+        <v>582143</v>
       </c>
       <c r="AZ66" s="11">
-        <v>582143</v>
+        <v>137287</v>
       </c>
       <c r="BA66" s="11">
-        <v>137287</v>
+        <v>4964</v>
       </c>
       <c r="BB66" s="11">
-        <v>4964</v>
+        <v>416134</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8763,8 +8763,8 @@
       <c r="AF67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG67" s="13" t="s">
-        <v>58</v>
+      <c r="AG67" s="13">
+        <v>0</v>
       </c>
       <c r="AH67" s="13">
         <v>0</v>
@@ -8799,8 +8799,8 @@
       <c r="AR67" s="13">
         <v>0</v>
       </c>
-      <c r="AS67" s="13">
-        <v>0</v>
+      <c r="AS67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT67" s="13" t="s">
         <v>58</v>
@@ -8922,8 +8922,8 @@
       <c r="AF68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG68" s="11" t="s">
-        <v>58</v>
+      <c r="AG68" s="11">
+        <v>0</v>
       </c>
       <c r="AH68" s="11">
         <v>0</v>
@@ -8958,8 +8958,8 @@
       <c r="AR68" s="11">
         <v>0</v>
       </c>
-      <c r="AS68" s="11">
-        <v>0</v>
+      <c r="AS68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT68" s="11" t="s">
         <v>58</v>
@@ -9080,70 +9080,70 @@
         <v>0</v>
       </c>
       <c r="AG69" s="15">
-        <v>0</v>
+        <v>210693</v>
       </c>
       <c r="AH69" s="15">
-        <v>210693</v>
+        <v>47940</v>
       </c>
       <c r="AI69" s="15">
-        <v>47940</v>
+        <v>60971</v>
       </c>
       <c r="AJ69" s="15">
-        <v>60971</v>
+        <v>181574</v>
       </c>
       <c r="AK69" s="15">
-        <v>181574</v>
+        <v>1870</v>
       </c>
       <c r="AL69" s="15">
-        <v>1870</v>
+        <v>83704</v>
       </c>
       <c r="AM69" s="15">
-        <v>83704</v>
+        <v>185645</v>
       </c>
       <c r="AN69" s="15">
-        <v>185645</v>
+        <v>17978</v>
       </c>
       <c r="AO69" s="15">
-        <v>17978</v>
+        <v>66588</v>
       </c>
       <c r="AP69" s="15">
-        <v>66588</v>
+        <v>3076</v>
       </c>
       <c r="AQ69" s="15">
-        <v>3076</v>
+        <v>295166</v>
       </c>
       <c r="AR69" s="15">
-        <v>295166</v>
+        <v>319516</v>
       </c>
       <c r="AS69" s="15">
-        <v>319516</v>
+        <v>93227</v>
       </c>
       <c r="AT69" s="15">
-        <v>93227</v>
+        <v>508590</v>
       </c>
       <c r="AU69" s="15">
-        <v>508590</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="15">
-        <v>0</v>
+        <v>379690</v>
       </c>
       <c r="AW69" s="15">
-        <v>379690</v>
+        <v>574384</v>
       </c>
       <c r="AX69" s="15">
-        <v>574384</v>
+        <v>91125</v>
       </c>
       <c r="AY69" s="15">
-        <v>91125</v>
+        <v>582143</v>
       </c>
       <c r="AZ69" s="15">
-        <v>582143</v>
+        <v>137287</v>
       </c>
       <c r="BA69" s="15">
-        <v>137287</v>
+        <v>4964</v>
       </c>
       <c r="BB69" s="15">
-        <v>4964</v>
+        <v>416134</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9295,8 +9295,8 @@
       <c r="AF71" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG71" s="19" t="s">
-        <v>58</v>
+      <c r="AG71" s="19">
+        <v>0</v>
       </c>
       <c r="AH71" s="19">
         <v>0</v>
@@ -9511,8 +9511,8 @@
       <c r="AF73" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG73" s="19" t="s">
-        <v>58</v>
+      <c r="AG73" s="19">
+        <v>0</v>
       </c>
       <c r="AH73" s="19">
         <v>0</v>
@@ -9727,8 +9727,8 @@
       <c r="AF75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG75" s="11" t="s">
-        <v>58</v>
+      <c r="AG75" s="11">
+        <v>0</v>
       </c>
       <c r="AH75" s="11">
         <v>0</v>
@@ -9885,70 +9885,70 @@
         <v>0</v>
       </c>
       <c r="AG76" s="15">
-        <v>0</v>
+        <v>487770</v>
       </c>
       <c r="AH76" s="15">
-        <v>487770</v>
+        <v>437615</v>
       </c>
       <c r="AI76" s="15">
-        <v>437615</v>
+        <v>436715</v>
       </c>
       <c r="AJ76" s="15">
-        <v>436715</v>
+        <v>653255</v>
       </c>
       <c r="AK76" s="15">
-        <v>653255</v>
+        <v>316647</v>
       </c>
       <c r="AL76" s="15">
-        <v>316647</v>
+        <v>321739</v>
       </c>
       <c r="AM76" s="15">
-        <v>321739</v>
+        <v>576830</v>
       </c>
       <c r="AN76" s="15">
-        <v>576830</v>
+        <v>594541</v>
       </c>
       <c r="AO76" s="15">
-        <v>594541</v>
+        <v>106694</v>
       </c>
       <c r="AP76" s="15">
-        <v>106694</v>
+        <v>429384</v>
       </c>
       <c r="AQ76" s="15">
-        <v>429384</v>
+        <v>828779</v>
       </c>
       <c r="AR76" s="15">
-        <v>828779</v>
+        <v>660410</v>
       </c>
       <c r="AS76" s="15">
-        <v>660410</v>
+        <v>392884</v>
       </c>
       <c r="AT76" s="15">
-        <v>392884</v>
+        <v>1097241</v>
       </c>
       <c r="AU76" s="15">
-        <v>1097241</v>
+        <v>385179</v>
       </c>
       <c r="AV76" s="15">
-        <v>385179</v>
+        <v>849989</v>
       </c>
       <c r="AW76" s="15">
-        <v>849989</v>
+        <v>1441032</v>
       </c>
       <c r="AX76" s="15">
-        <v>1441032</v>
+        <v>1319159</v>
       </c>
       <c r="AY76" s="15">
-        <v>1319160</v>
+        <v>1309231</v>
       </c>
       <c r="AZ76" s="15">
-        <v>1309230</v>
+        <v>870895</v>
       </c>
       <c r="BA76" s="15">
-        <v>870895</v>
+        <v>674059</v>
       </c>
       <c r="BB76" s="15">
-        <v>674059</v>
+        <v>990896</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10477,17 +10477,17 @@
       <c r="AF83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG83" s="11" t="s">
-        <v>58</v>
+      <c r="AG83" s="11">
+        <v>1201785</v>
       </c>
       <c r="AH83" s="11">
-        <v>1201785</v>
+        <v>1201661</v>
       </c>
       <c r="AI83" s="11">
-        <v>1201661</v>
-      </c>
-      <c r="AJ83" s="11">
         <v>1201863</v>
+      </c>
+      <c r="AJ83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK83" s="11" t="s">
         <v>58</v>
@@ -10678,29 +10678,29 @@
       <c r="AT84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU84" s="13" t="s">
-        <v>58</v>
+      <c r="AU84" s="13">
+        <v>5048813</v>
       </c>
       <c r="AV84" s="13">
-        <v>5048813</v>
+        <v>5049974</v>
       </c>
       <c r="AW84" s="13">
-        <v>5049974</v>
+        <v>5658670</v>
       </c>
       <c r="AX84" s="13">
-        <v>5658670</v>
+        <v>7572141</v>
       </c>
       <c r="AY84" s="13">
-        <v>7572143</v>
+        <v>6750665</v>
       </c>
       <c r="AZ84" s="13">
-        <v>6750664</v>
+        <v>6539795</v>
       </c>
       <c r="BA84" s="13">
-        <v>6539795</v>
+        <v>6300745</v>
       </c>
       <c r="BB84" s="13">
-        <v>6300745</v>
+        <v>6135507</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10795,38 +10795,38 @@
       <c r="AF85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG85" s="11" t="s">
-        <v>58</v>
+      <c r="AG85" s="11">
+        <v>2224752</v>
       </c>
       <c r="AH85" s="11">
-        <v>2224752</v>
+        <v>2212727</v>
       </c>
       <c r="AI85" s="11">
-        <v>2212727</v>
+        <v>2254165</v>
       </c>
       <c r="AJ85" s="11">
-        <v>2254165</v>
+        <v>3115128</v>
       </c>
       <c r="AK85" s="11">
-        <v>3115128</v>
+        <v>3086730</v>
       </c>
       <c r="AL85" s="11">
-        <v>3086730</v>
+        <v>3147501</v>
       </c>
       <c r="AM85" s="11">
-        <v>3147501</v>
+        <v>3429867</v>
       </c>
       <c r="AN85" s="11">
-        <v>3429867</v>
+        <v>3578125</v>
       </c>
       <c r="AO85" s="11">
-        <v>3578125</v>
+        <v>3878481</v>
       </c>
       <c r="AP85" s="11">
-        <v>3878481</v>
-      </c>
-      <c r="AQ85" s="11">
         <v>2735099</v>
+      </c>
+      <c r="AQ85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR85" s="11" t="s">
         <v>58</v>
@@ -10954,41 +10954,41 @@
       <c r="AF86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG86" s="13" t="s">
-        <v>58</v>
+      <c r="AG86" s="13">
+        <v>3215846</v>
       </c>
       <c r="AH86" s="13">
-        <v>3215846</v>
+        <v>3202414</v>
       </c>
       <c r="AI86" s="13">
-        <v>3202414</v>
+        <v>3369866</v>
       </c>
       <c r="AJ86" s="13">
-        <v>3369866</v>
+        <v>4349344</v>
       </c>
       <c r="AK86" s="13">
-        <v>4349344</v>
+        <v>4358887</v>
       </c>
       <c r="AL86" s="13">
-        <v>4358887</v>
+        <v>4408994</v>
       </c>
       <c r="AM86" s="13">
-        <v>4408994</v>
+        <v>4524814</v>
       </c>
       <c r="AN86" s="13">
-        <v>4524814</v>
+        <v>5016016</v>
       </c>
       <c r="AO86" s="13">
-        <v>5016016</v>
+        <v>5379166</v>
       </c>
       <c r="AP86" s="13">
-        <v>5379166</v>
+        <v>5419832</v>
       </c>
       <c r="AQ86" s="13">
-        <v>5419832</v>
-      </c>
-      <c r="AR86" s="13">
         <v>5522816</v>
+      </c>
+      <c r="AR86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>58</v>
@@ -11149,14 +11149,14 @@
       <c r="AR87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS87" s="11" t="s">
-        <v>58</v>
+      <c r="AS87" s="11">
+        <v>4186381</v>
       </c>
       <c r="AT87" s="11">
-        <v>4186381</v>
-      </c>
-      <c r="AU87" s="11">
         <v>4739045</v>
+      </c>
+      <c r="AU87" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV87" s="11" t="s">
         <v>58</v>
@@ -11305,11 +11305,11 @@
       <c r="AQ88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS88" s="13">
+      <c r="AR88" s="13">
         <v>3540101</v>
+      </c>
+      <c r="AS88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT88" s="13" t="s">
         <v>58</v>
@@ -11452,20 +11452,20 @@
       <c r="AM89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO89" s="11">
+      <c r="AN89" s="11">
         <v>4436299</v>
       </c>
-      <c r="AP89" s="11" t="s">
-        <v>58</v>
+      <c r="AO89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP89" s="11">
+        <v>3857090</v>
       </c>
       <c r="AQ89" s="11">
-        <v>3857090</v>
-      </c>
-      <c r="AR89" s="11">
         <v>3988519</v>
+      </c>
+      <c r="AR89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS89" s="11" t="s">
         <v>58</v>
@@ -11647,71 +11647,71 @@
       <c r="AF91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG91" s="11" t="s">
-        <v>58</v>
+      <c r="AG91" s="11">
+        <v>4896763</v>
       </c>
       <c r="AH91" s="11">
-        <v>4896763</v>
+        <v>4479537</v>
       </c>
       <c r="AI91" s="11">
-        <v>4479537</v>
+        <v>4479539</v>
       </c>
       <c r="AJ91" s="11">
-        <v>4479539</v>
+        <v>4656579</v>
       </c>
       <c r="AK91" s="11">
-        <v>4656579</v>
+        <v>4259681</v>
       </c>
       <c r="AL91" s="11">
-        <v>4259681</v>
+        <v>5190624</v>
       </c>
       <c r="AM91" s="11">
-        <v>5190624</v>
+        <v>5865561</v>
       </c>
       <c r="AN91" s="11">
-        <v>5865561</v>
+        <v>4768700</v>
       </c>
       <c r="AO91" s="11">
-        <v>4768700</v>
+        <v>4945266</v>
       </c>
       <c r="AP91" s="11">
-        <v>4945266</v>
+        <v>5405975</v>
       </c>
       <c r="AQ91" s="11">
-        <v>5405975</v>
+        <v>5196585</v>
       </c>
       <c r="AR91" s="11">
-        <v>5196585</v>
+        <v>5597099</v>
       </c>
       <c r="AS91" s="11">
-        <v>5597099</v>
+        <v>5844220</v>
       </c>
       <c r="AT91" s="11">
-        <v>5844220</v>
-      </c>
-      <c r="AU91" s="11">
         <v>5513649</v>
       </c>
-      <c r="AV91" s="11" t="s">
-        <v>58</v>
+      <c r="AU91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV91" s="11">
+        <v>5901489</v>
       </c>
       <c r="AW91" s="11">
-        <v>5901489</v>
+        <v>6539799</v>
       </c>
       <c r="AX91" s="11">
-        <v>6539799</v>
+        <v>6740513</v>
       </c>
       <c r="AY91" s="11">
-        <v>6740513</v>
+        <v>7736531</v>
       </c>
       <c r="AZ91" s="11">
-        <v>7736531</v>
+        <v>7440223</v>
       </c>
       <c r="BA91" s="11">
-        <v>7440223</v>
+        <v>6962132</v>
       </c>
       <c r="BB91" s="11">
-        <v>6962132</v>
+        <v>8592661</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB0F616-0DCD-4355-B689-CC745E878D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AD6C9-2A68-4E68-B98B-D223A62D8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سهگمت-سیمان‌هگمتان‌</t>

--- a/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AD6C9-2A68-4E68-B98B-D223A62D8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A216CAE-0E8C-45FF-AF14-FB1CEECA9205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/07</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/10</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,29 +1522,29 @@
       <c r="AC11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="11">
+      <c r="AD11" s="11">
         <v>11879</v>
       </c>
+      <c r="AE11" s="11">
+        <v>5177</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>4186</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH11" s="11">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="11">
-        <v>4186</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="11">
-        <v>0</v>
+      <c r="AK11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL11" s="11">
         <v>0</v>
@@ -1564,17 +1564,17 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
         <v>0</v>
@@ -1594,11 +1594,11 @@
       <c r="BA11" s="11">
         <v>0</v>
       </c>
-      <c r="BB11" s="11">
-        <v>0</v>
+      <c r="BB11" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1723,41 +1723,41 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>77132</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>91478</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>156004</v>
       </c>
       <c r="AU12" s="13">
-        <v>77132</v>
+        <v>161879</v>
       </c>
       <c r="AV12" s="13">
-        <v>91478</v>
+        <v>111532</v>
       </c>
       <c r="AW12" s="13">
-        <v>156004</v>
+        <v>103477</v>
       </c>
       <c r="AX12" s="13">
-        <v>161879</v>
+        <v>146554</v>
       </c>
       <c r="AY12" s="13">
-        <v>111532</v>
+        <v>88487</v>
       </c>
       <c r="AZ12" s="13">
-        <v>103477</v>
+        <v>84320</v>
       </c>
       <c r="BA12" s="13">
-        <v>146554</v>
+        <v>74521</v>
       </c>
       <c r="BB12" s="13">
-        <v>88487</v>
+        <v>110068</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1840,38 +1840,38 @@
       <c r="AC13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
+      <c r="AD13" s="11">
+        <v>112537</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>91717</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>75379</v>
       </c>
       <c r="AG13" s="11">
-        <v>112537</v>
+        <v>77229</v>
       </c>
       <c r="AH13" s="11">
-        <v>91717</v>
+        <v>32425</v>
       </c>
       <c r="AI13" s="11">
-        <v>75379</v>
+        <v>35809</v>
       </c>
       <c r="AJ13" s="11">
-        <v>77229</v>
+        <v>64462</v>
       </c>
       <c r="AK13" s="11">
-        <v>32425</v>
+        <v>24634</v>
       </c>
       <c r="AL13" s="11">
-        <v>35809</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>64462</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>24634</v>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO13" s="11">
         <v>0</v>
@@ -1882,8 +1882,8 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11">
-        <v>0</v>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS13" s="11" t="s">
         <v>58</v>
@@ -1916,7 +1916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1999,50 +1999,50 @@
       <c r="AC14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
+      <c r="AD14" s="13">
+        <v>33927</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>53361</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>59335</v>
       </c>
       <c r="AG14" s="13">
-        <v>33927</v>
+        <v>59420</v>
       </c>
       <c r="AH14" s="13">
-        <v>53361</v>
+        <v>41286</v>
       </c>
       <c r="AI14" s="13">
-        <v>59335</v>
+        <v>30888</v>
       </c>
       <c r="AJ14" s="13">
-        <v>59420</v>
+        <v>39978</v>
       </c>
       <c r="AK14" s="13">
-        <v>41286</v>
+        <v>23040</v>
       </c>
       <c r="AL14" s="13">
-        <v>30888</v>
+        <v>7171</v>
       </c>
       <c r="AM14" s="13">
-        <v>39978</v>
+        <v>6767</v>
       </c>
       <c r="AN14" s="13">
-        <v>23040</v>
+        <v>3835</v>
       </c>
       <c r="AO14" s="13">
-        <v>7171</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>6767</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>3835</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>58</v>
@@ -2075,7 +2075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2194,20 +2194,20 @@
       <c r="AO15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
+      <c r="AP15" s="11">
+        <v>73590</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>123612</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS15" s="11">
-        <v>73590</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>123612</v>
+      <c r="AS15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU15" s="11" t="s">
         <v>58</v>
@@ -2234,7 +2234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2350,8 +2350,8 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>97193</v>
       </c>
       <c r="AP16" s="13" t="s">
         <v>58</v>
@@ -2359,8 +2359,8 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13">
-        <v>97193</v>
+      <c r="AR16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>58</v>
@@ -2393,7 +2393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2497,26 +2497,26 @@
       <c r="AJ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
+      <c r="AK17" s="11">
+        <v>86828</v>
       </c>
       <c r="AL17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM17" s="11" t="s">
-        <v>58</v>
+      <c r="AM17" s="11">
+        <v>97761</v>
       </c>
       <c r="AN17" s="11">
-        <v>86828</v>
+        <v>129978</v>
       </c>
       <c r="AO17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="11">
-        <v>97761</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>129978</v>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>58</v>
@@ -2552,7 +2552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2634,82 +2634,82 @@
         <v>0</v>
       </c>
       <c r="AD18" s="15">
-        <v>0</v>
+        <v>158343</v>
       </c>
       <c r="AE18" s="15">
-        <v>0</v>
+        <v>150255</v>
       </c>
       <c r="AF18" s="15">
-        <v>0</v>
+        <v>138900</v>
       </c>
       <c r="AG18" s="15">
-        <v>158343</v>
+        <v>136649</v>
       </c>
       <c r="AH18" s="15">
-        <v>150255</v>
+        <v>73711</v>
       </c>
       <c r="AI18" s="15">
-        <v>138900</v>
+        <v>66697</v>
       </c>
       <c r="AJ18" s="15">
-        <v>136649</v>
+        <v>104440</v>
       </c>
       <c r="AK18" s="15">
-        <v>73711</v>
+        <v>134502</v>
       </c>
       <c r="AL18" s="15">
-        <v>66697</v>
+        <v>7171</v>
       </c>
       <c r="AM18" s="15">
-        <v>104440</v>
+        <v>104528</v>
       </c>
       <c r="AN18" s="15">
-        <v>134502</v>
+        <v>133813</v>
       </c>
       <c r="AO18" s="15">
-        <v>7171</v>
+        <v>97193</v>
       </c>
       <c r="AP18" s="15">
-        <v>104528</v>
+        <v>73590</v>
       </c>
       <c r="AQ18" s="15">
-        <v>133813</v>
+        <v>123612</v>
       </c>
       <c r="AR18" s="15">
-        <v>97193</v>
+        <v>77132</v>
       </c>
       <c r="AS18" s="15">
-        <v>73590</v>
+        <v>91478</v>
       </c>
       <c r="AT18" s="15">
-        <v>123612</v>
+        <v>156004</v>
       </c>
       <c r="AU18" s="15">
-        <v>77132</v>
+        <v>161879</v>
       </c>
       <c r="AV18" s="15">
-        <v>91478</v>
+        <v>111532</v>
       </c>
       <c r="AW18" s="15">
-        <v>156004</v>
+        <v>103477</v>
       </c>
       <c r="AX18" s="15">
-        <v>161879</v>
+        <v>146554</v>
       </c>
       <c r="AY18" s="15">
-        <v>111532</v>
+        <v>88487</v>
       </c>
       <c r="AZ18" s="15">
-        <v>103477</v>
+        <v>84320</v>
       </c>
       <c r="BA18" s="15">
-        <v>146554</v>
+        <v>74521</v>
       </c>
       <c r="BB18" s="15">
-        <v>88487</v>
+        <v>110068</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -2849,83 +2849,83 @@
       <c r="AC20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF20" s="11" t="s">
-        <v>58</v>
+      <c r="AD20" s="11">
+        <v>43027</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>10702</v>
+      </c>
+      <c r="AF20" s="11">
+        <v>13611</v>
       </c>
       <c r="AG20" s="11">
-        <v>43027</v>
+        <v>38993</v>
       </c>
       <c r="AH20" s="11">
-        <v>10702</v>
+        <v>439</v>
       </c>
       <c r="AI20" s="11">
-        <v>13611</v>
+        <v>16126</v>
       </c>
       <c r="AJ20" s="11">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK20" s="11">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL20" s="11">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM20" s="11">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN20" s="11">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO20" s="11">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP20" s="11">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ20" s="11">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR20" s="11">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="11">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT20" s="11">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU20" s="11">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV20" s="11">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW20" s="11">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX20" s="11">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY20" s="11">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ20" s="11">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA20" s="11">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB20" s="11">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
@@ -3008,23 +3008,23 @@
       <c r="AC21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AD21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
@@ -3041,8 +3041,8 @@
       <c r="AN21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="13" t="s">
-        <v>58</v>
+      <c r="AO21" s="13">
+        <v>0</v>
       </c>
       <c r="AP21" s="13" t="s">
         <v>58</v>
@@ -3050,8 +3050,8 @@
       <c r="AQ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="13">
-        <v>0</v>
+      <c r="AR21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS21" s="13" t="s">
         <v>58</v>
@@ -3084,7 +3084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3167,23 +3167,23 @@
       <c r="AC22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="11">
-        <v>0</v>
+      <c r="AD22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>58</v>
@@ -3200,8 +3200,8 @@
       <c r="AN22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="11" t="s">
-        <v>58</v>
+      <c r="AO22" s="11">
+        <v>0</v>
       </c>
       <c r="AP22" s="11" t="s">
         <v>58</v>
@@ -3209,8 +3209,8 @@
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11">
-        <v>0</v>
+      <c r="AR22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS22" s="11" t="s">
         <v>58</v>
@@ -3243,7 +3243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
@@ -3325,82 +3325,82 @@
         <v>0</v>
       </c>
       <c r="AD23" s="15">
-        <v>0</v>
+        <v>43027</v>
       </c>
       <c r="AE23" s="15">
-        <v>0</v>
+        <v>10702</v>
       </c>
       <c r="AF23" s="15">
-        <v>0</v>
+        <v>13611</v>
       </c>
       <c r="AG23" s="15">
-        <v>43027</v>
+        <v>38993</v>
       </c>
       <c r="AH23" s="15">
-        <v>10702</v>
+        <v>439</v>
       </c>
       <c r="AI23" s="15">
-        <v>13611</v>
+        <v>16126</v>
       </c>
       <c r="AJ23" s="15">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK23" s="15">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL23" s="15">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM23" s="15">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN23" s="15">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO23" s="15">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP23" s="15">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ23" s="15">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR23" s="15">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="15">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT23" s="15">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU23" s="15">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV23" s="15">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW23" s="15">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX23" s="15">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY23" s="15">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ23" s="15">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA23" s="15">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB23" s="15">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
@@ -3538,14 +3538,14 @@
       <c r="AC25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF25" s="19" t="s">
-        <v>58</v>
+      <c r="AD25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>0</v>
       </c>
       <c r="AG25" s="19">
         <v>0</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>70</v>
       </c>
@@ -3696,82 +3696,82 @@
         <v>0</v>
       </c>
       <c r="AD26" s="15">
-        <v>0</v>
+        <v>201370</v>
       </c>
       <c r="AE26" s="15">
-        <v>0</v>
+        <v>160957</v>
       </c>
       <c r="AF26" s="15">
-        <v>0</v>
+        <v>152511</v>
       </c>
       <c r="AG26" s="15">
-        <v>201370</v>
+        <v>175642</v>
       </c>
       <c r="AH26" s="15">
-        <v>160957</v>
+        <v>74150</v>
       </c>
       <c r="AI26" s="15">
-        <v>152511</v>
+        <v>82823</v>
       </c>
       <c r="AJ26" s="15">
-        <v>175642</v>
+        <v>136090</v>
       </c>
       <c r="AK26" s="15">
-        <v>74150</v>
+        <v>138272</v>
       </c>
       <c r="AL26" s="15">
-        <v>82823</v>
+        <v>20636</v>
       </c>
       <c r="AM26" s="15">
-        <v>136090</v>
+        <v>105097</v>
       </c>
       <c r="AN26" s="15">
-        <v>138272</v>
+        <v>190613</v>
       </c>
       <c r="AO26" s="15">
-        <v>20636</v>
+        <v>154279</v>
       </c>
       <c r="AP26" s="15">
-        <v>105097</v>
+        <v>89542</v>
       </c>
       <c r="AQ26" s="15">
-        <v>190613</v>
+        <v>215854</v>
       </c>
       <c r="AR26" s="15">
-        <v>154279</v>
+        <v>77132</v>
       </c>
       <c r="AS26" s="15">
-        <v>89542</v>
+        <v>155816</v>
       </c>
       <c r="AT26" s="15">
-        <v>215854</v>
+        <v>243833</v>
       </c>
       <c r="AU26" s="15">
-        <v>77132</v>
+        <v>175398</v>
       </c>
       <c r="AV26" s="15">
-        <v>155816</v>
+        <v>186778</v>
       </c>
       <c r="AW26" s="15">
-        <v>243833</v>
+        <v>121929</v>
       </c>
       <c r="AX26" s="15">
-        <v>175398</v>
+        <v>147267</v>
       </c>
       <c r="AY26" s="15">
-        <v>186778</v>
+        <v>136916</v>
       </c>
       <c r="AZ26" s="15">
-        <v>121929</v>
+        <v>92867</v>
       </c>
       <c r="BA26" s="15">
-        <v>147267</v>
+        <v>74707</v>
       </c>
       <c r="BB26" s="15">
-        <v>136916</v>
+        <v>155540</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3826,7 +3826,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3881,7 +3881,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3936,7 +3936,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4148,7 +4148,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4288,29 +4288,29 @@
       <c r="AC33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG33" s="11">
+      <c r="AD33" s="11">
         <v>11879</v>
       </c>
+      <c r="AE33" s="11">
+        <v>5177</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>4186</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH33" s="11">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="11">
-        <v>4186</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK33" s="11">
-        <v>0</v>
+      <c r="AK33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL33" s="11">
         <v>0</v>
@@ -4330,17 +4330,17 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>0</v>
       </c>
       <c r="AV33" s="11">
         <v>0</v>
@@ -4360,11 +4360,11 @@
       <c r="BA33" s="11">
         <v>0</v>
       </c>
-      <c r="BB33" s="11">
-        <v>0</v>
+      <c r="BB33" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4489,41 +4489,41 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>76291</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>93129</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>153154</v>
       </c>
       <c r="AU34" s="13">
-        <v>76291</v>
+        <v>162178</v>
       </c>
       <c r="AV34" s="13">
-        <v>93129</v>
+        <v>107706</v>
       </c>
       <c r="AW34" s="13">
-        <v>153154</v>
+        <v>112176</v>
       </c>
       <c r="AX34" s="13">
-        <v>162178</v>
+        <v>106193</v>
       </c>
       <c r="AY34" s="13">
-        <v>107706</v>
+        <v>93678</v>
       </c>
       <c r="AZ34" s="13">
-        <v>112176</v>
+        <v>85071</v>
       </c>
       <c r="BA34" s="13">
-        <v>106193</v>
+        <v>70696</v>
       </c>
       <c r="BB34" s="13">
-        <v>93678</v>
+        <v>108118</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4606,50 +4606,50 @@
       <c r="AC35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AD35" s="11">
+        <v>69085</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>96067</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>75754</v>
       </c>
       <c r="AG35" s="11">
-        <v>69085</v>
+        <v>68454</v>
       </c>
       <c r="AH35" s="11">
-        <v>96067</v>
+        <v>43676</v>
       </c>
       <c r="AI35" s="11">
-        <v>75754</v>
+        <v>32359</v>
       </c>
       <c r="AJ35" s="11">
-        <v>68454</v>
+        <v>61312</v>
       </c>
       <c r="AK35" s="11">
-        <v>43676</v>
+        <v>21184</v>
       </c>
       <c r="AL35" s="11">
-        <v>32359</v>
+        <v>395</v>
       </c>
       <c r="AM35" s="11">
-        <v>61312</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>21184</v>
+        <v>151</v>
+      </c>
+      <c r="AN35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO35" s="11">
-        <v>395</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="11">
-        <v>0</v>
+      <c r="AR35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>58</v>
@@ -4682,7 +4682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4765,50 +4765,50 @@
       <c r="AC36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF36" s="13" t="s">
-        <v>58</v>
+      <c r="AD36" s="13">
+        <v>33927</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>53361</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>59335</v>
       </c>
       <c r="AG36" s="13">
-        <v>33927</v>
+        <v>59420</v>
       </c>
       <c r="AH36" s="13">
-        <v>53361</v>
+        <v>41286</v>
       </c>
       <c r="AI36" s="13">
-        <v>59335</v>
+        <v>30888</v>
       </c>
       <c r="AJ36" s="13">
-        <v>59420</v>
+        <v>39978</v>
       </c>
       <c r="AK36" s="13">
-        <v>41286</v>
+        <v>23040</v>
       </c>
       <c r="AL36" s="13">
-        <v>30888</v>
+        <v>7171</v>
       </c>
       <c r="AM36" s="13">
-        <v>39978</v>
+        <v>6767</v>
       </c>
       <c r="AN36" s="13">
-        <v>23040</v>
+        <v>3835</v>
       </c>
       <c r="AO36" s="13">
-        <v>7171</v>
-      </c>
-      <c r="AP36" s="13">
-        <v>6767</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>3835</v>
-      </c>
-      <c r="AR36" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS36" s="13" t="s">
         <v>58</v>
@@ -4841,7 +4841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
@@ -4960,20 +4960,20 @@
       <c r="AO37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AP37" s="11">
+        <v>71579</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>124213</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11">
-        <v>71579</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>124213</v>
+      <c r="AS37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU37" s="11" t="s">
         <v>58</v>
@@ -5000,7 +5000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
@@ -5116,8 +5116,8 @@
       <c r="AN38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
+      <c r="AO38" s="13">
+        <v>96295</v>
       </c>
       <c r="AP38" s="13" t="s">
         <v>58</v>
@@ -5125,8 +5125,8 @@
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13">
-        <v>96295</v>
+      <c r="AR38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS38" s="13" t="s">
         <v>58</v>
@@ -5159,7 +5159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5263,26 +5263,26 @@
       <c r="AJ39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK39" s="11" t="s">
-        <v>58</v>
+      <c r="AK39" s="11">
+        <v>86828</v>
       </c>
       <c r="AL39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM39" s="11" t="s">
-        <v>58</v>
+      <c r="AM39" s="11">
+        <v>100910</v>
       </c>
       <c r="AN39" s="11">
-        <v>86828</v>
+        <v>128477</v>
       </c>
       <c r="AO39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="11">
-        <v>100910</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>128477</v>
+      <c r="AP39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR39" s="11" t="s">
         <v>58</v>
@@ -5318,7 +5318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>73</v>
       </c>
@@ -5400,82 +5400,82 @@
         <v>0</v>
       </c>
       <c r="AD40" s="15">
-        <v>0</v>
+        <v>114891</v>
       </c>
       <c r="AE40" s="15">
-        <v>0</v>
+        <v>154605</v>
       </c>
       <c r="AF40" s="15">
-        <v>0</v>
+        <v>139275</v>
       </c>
       <c r="AG40" s="15">
-        <v>114891</v>
+        <v>127874</v>
       </c>
       <c r="AH40" s="15">
-        <v>154605</v>
+        <v>84962</v>
       </c>
       <c r="AI40" s="15">
-        <v>139275</v>
+        <v>63247</v>
       </c>
       <c r="AJ40" s="15">
-        <v>127874</v>
+        <v>101290</v>
       </c>
       <c r="AK40" s="15">
-        <v>84962</v>
+        <v>131052</v>
       </c>
       <c r="AL40" s="15">
-        <v>63247</v>
+        <v>7566</v>
       </c>
       <c r="AM40" s="15">
-        <v>101290</v>
+        <v>107828</v>
       </c>
       <c r="AN40" s="15">
-        <v>131052</v>
+        <v>132312</v>
       </c>
       <c r="AO40" s="15">
-        <v>7566</v>
+        <v>96295</v>
       </c>
       <c r="AP40" s="15">
-        <v>107828</v>
+        <v>71579</v>
       </c>
       <c r="AQ40" s="15">
-        <v>132312</v>
+        <v>124213</v>
       </c>
       <c r="AR40" s="15">
-        <v>96295</v>
+        <v>76291</v>
       </c>
       <c r="AS40" s="15">
-        <v>71579</v>
+        <v>93129</v>
       </c>
       <c r="AT40" s="15">
-        <v>124213</v>
+        <v>153154</v>
       </c>
       <c r="AU40" s="15">
-        <v>76291</v>
+        <v>162178</v>
       </c>
       <c r="AV40" s="15">
-        <v>93129</v>
+        <v>107706</v>
       </c>
       <c r="AW40" s="15">
-        <v>153154</v>
+        <v>112176</v>
       </c>
       <c r="AX40" s="15">
-        <v>162178</v>
+        <v>106193</v>
       </c>
       <c r="AY40" s="15">
-        <v>107706</v>
+        <v>93678</v>
       </c>
       <c r="AZ40" s="15">
-        <v>112176</v>
+        <v>85071</v>
       </c>
       <c r="BA40" s="15">
-        <v>106193</v>
+        <v>70696</v>
       </c>
       <c r="BB40" s="15">
-        <v>93678</v>
+        <v>108118</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>74</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>56</v>
       </c>
@@ -5615,83 +5615,83 @@
       <c r="AC42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF42" s="11" t="s">
-        <v>58</v>
+      <c r="AD42" s="11">
+        <v>43027</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>10702</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>13611</v>
       </c>
       <c r="AG42" s="11">
-        <v>43027</v>
+        <v>38993</v>
       </c>
       <c r="AH42" s="11">
-        <v>10702</v>
+        <v>439</v>
       </c>
       <c r="AI42" s="11">
-        <v>13611</v>
+        <v>16126</v>
       </c>
       <c r="AJ42" s="11">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK42" s="11">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL42" s="11">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM42" s="11">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN42" s="11">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO42" s="11">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP42" s="11">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ42" s="11">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR42" s="11">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="11">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT42" s="11">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV42" s="11">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW42" s="11">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX42" s="11">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY42" s="11">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ42" s="11">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA42" s="11">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB42" s="11">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5774,23 +5774,23 @@
       <c r="AC43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="13">
-        <v>0</v>
+      <c r="AD43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ43" s="13" t="s">
         <v>58</v>
@@ -5807,8 +5807,8 @@
       <c r="AN43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO43" s="13" t="s">
-        <v>58</v>
+      <c r="AO43" s="13">
+        <v>0</v>
       </c>
       <c r="AP43" s="13" t="s">
         <v>58</v>
@@ -5816,8 +5816,8 @@
       <c r="AQ43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR43" s="13">
-        <v>0</v>
+      <c r="AR43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS43" s="13" t="s">
         <v>58</v>
@@ -5850,7 +5850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>61</v>
       </c>
@@ -5933,23 +5933,23 @@
       <c r="AC44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="11">
-        <v>0</v>
+      <c r="AD44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ44" s="11" t="s">
         <v>58</v>
@@ -5966,8 +5966,8 @@
       <c r="AN44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="11" t="s">
-        <v>58</v>
+      <c r="AO44" s="11">
+        <v>0</v>
       </c>
       <c r="AP44" s="11" t="s">
         <v>58</v>
@@ -5975,8 +5975,8 @@
       <c r="AQ44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="11">
-        <v>0</v>
+      <c r="AR44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS44" s="11" t="s">
         <v>58</v>
@@ -6009,7 +6009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
@@ -6091,82 +6091,82 @@
         <v>0</v>
       </c>
       <c r="AD45" s="15">
-        <v>0</v>
+        <v>43027</v>
       </c>
       <c r="AE45" s="15">
-        <v>0</v>
+        <v>10702</v>
       </c>
       <c r="AF45" s="15">
-        <v>0</v>
+        <v>13611</v>
       </c>
       <c r="AG45" s="15">
-        <v>43027</v>
+        <v>38993</v>
       </c>
       <c r="AH45" s="15">
-        <v>10702</v>
+        <v>439</v>
       </c>
       <c r="AI45" s="15">
-        <v>13611</v>
+        <v>16126</v>
       </c>
       <c r="AJ45" s="15">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK45" s="15">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL45" s="15">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM45" s="15">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN45" s="15">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO45" s="15">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP45" s="15">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ45" s="15">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR45" s="15">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="15">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT45" s="15">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU45" s="15">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV45" s="15">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW45" s="15">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX45" s="15">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY45" s="15">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ45" s="15">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA45" s="15">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB45" s="15">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -6223,7 +6223,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>69</v>
       </c>
@@ -6304,14 +6304,14 @@
       <c r="AC47" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD47" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE47" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF47" s="19" t="s">
-        <v>58</v>
+      <c r="AD47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="19">
+        <v>0</v>
       </c>
       <c r="AG47" s="19">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>76</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>77</v>
       </c>
@@ -6518,14 +6518,14 @@
       <c r="AC49" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD49" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE49" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF49" s="19" t="s">
-        <v>58</v>
+      <c r="AD49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="19">
+        <v>0</v>
       </c>
       <c r="AG49" s="19">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>70</v>
       </c>
@@ -6676,82 +6676,82 @@
         <v>0</v>
       </c>
       <c r="AD50" s="15">
-        <v>0</v>
+        <v>157918</v>
       </c>
       <c r="AE50" s="15">
-        <v>0</v>
+        <v>165307</v>
       </c>
       <c r="AF50" s="15">
-        <v>0</v>
+        <v>152886</v>
       </c>
       <c r="AG50" s="15">
-        <v>157918</v>
+        <v>166867</v>
       </c>
       <c r="AH50" s="15">
-        <v>165307</v>
+        <v>85401</v>
       </c>
       <c r="AI50" s="15">
-        <v>152886</v>
+        <v>79373</v>
       </c>
       <c r="AJ50" s="15">
-        <v>166867</v>
+        <v>132940</v>
       </c>
       <c r="AK50" s="15">
-        <v>85401</v>
+        <v>134822</v>
       </c>
       <c r="AL50" s="15">
-        <v>79373</v>
+        <v>21031</v>
       </c>
       <c r="AM50" s="15">
-        <v>132940</v>
+        <v>108397</v>
       </c>
       <c r="AN50" s="15">
-        <v>134822</v>
+        <v>189112</v>
       </c>
       <c r="AO50" s="15">
-        <v>21031</v>
+        <v>153381</v>
       </c>
       <c r="AP50" s="15">
-        <v>108397</v>
+        <v>87531</v>
       </c>
       <c r="AQ50" s="15">
-        <v>189112</v>
+        <v>216455</v>
       </c>
       <c r="AR50" s="15">
-        <v>153381</v>
+        <v>76291</v>
       </c>
       <c r="AS50" s="15">
-        <v>87531</v>
+        <v>157467</v>
       </c>
       <c r="AT50" s="15">
-        <v>216455</v>
+        <v>240983</v>
       </c>
       <c r="AU50" s="15">
-        <v>76291</v>
+        <v>175697</v>
       </c>
       <c r="AV50" s="15">
-        <v>157467</v>
+        <v>182952</v>
       </c>
       <c r="AW50" s="15">
-        <v>240983</v>
+        <v>130628</v>
       </c>
       <c r="AX50" s="15">
-        <v>175697</v>
+        <v>106906</v>
       </c>
       <c r="AY50" s="15">
-        <v>182952</v>
+        <v>142107</v>
       </c>
       <c r="AZ50" s="15">
-        <v>130628</v>
+        <v>93618</v>
       </c>
       <c r="BA50" s="15">
-        <v>106906</v>
+        <v>70882</v>
       </c>
       <c r="BB50" s="15">
-        <v>142107</v>
+        <v>153590</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6806,7 +6806,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6861,7 +6861,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6916,7 +6916,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>78</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7128,7 +7128,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>79</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7268,23 +7268,23 @@
       <c r="AC57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF57" s="11" t="s">
-        <v>58</v>
+      <c r="AD57" s="11">
+        <v>14276</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>6221</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>5031</v>
       </c>
       <c r="AG57" s="11">
-        <v>14276</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="11">
-        <v>6221</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="11">
-        <v>5031</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="11">
         <v>0</v>
@@ -7310,8 +7310,8 @@
       <c r="AQ57" s="11">
         <v>0</v>
       </c>
-      <c r="AR57" s="11">
-        <v>0</v>
+      <c r="AR57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS57" s="11">
         <v>0</v>
@@ -7319,8 +7319,8 @@
       <c r="AT57" s="11">
         <v>0</v>
       </c>
-      <c r="AU57" s="11" t="s">
-        <v>58</v>
+      <c r="AU57" s="11">
+        <v>0</v>
       </c>
       <c r="AV57" s="11">
         <v>0</v>
@@ -7340,11 +7340,11 @@
       <c r="BA57" s="11">
         <v>0</v>
       </c>
-      <c r="BB57" s="11">
-        <v>0</v>
+      <c r="BB57" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7469,41 +7469,41 @@
       <c r="AQ58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" s="13" t="s">
-        <v>58</v>
+      <c r="AR58" s="13">
+        <v>385179</v>
+      </c>
+      <c r="AS58" s="13">
+        <v>470299</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>866648</v>
       </c>
       <c r="AU58" s="13">
-        <v>385179</v>
+        <v>1228035</v>
       </c>
       <c r="AV58" s="13">
-        <v>470299</v>
+        <v>727087</v>
       </c>
       <c r="AW58" s="13">
-        <v>866648</v>
+        <v>733608</v>
       </c>
       <c r="AX58" s="13">
-        <v>1228034</v>
+        <v>669095</v>
       </c>
       <c r="AY58" s="13">
-        <v>727088</v>
+        <v>574762</v>
       </c>
       <c r="AZ58" s="13">
-        <v>733608</v>
+        <v>503015</v>
       </c>
       <c r="BA58" s="13">
-        <v>669095</v>
+        <v>387507</v>
       </c>
       <c r="BB58" s="13">
-        <v>574762</v>
+        <v>645067</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7586,50 +7586,50 @@
       <c r="AC59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF59" s="11" t="s">
-        <v>58</v>
+      <c r="AD59" s="11">
+        <v>153697</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>212570</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>170762</v>
       </c>
       <c r="AG59" s="11">
-        <v>153697</v>
+        <v>213243</v>
       </c>
       <c r="AH59" s="11">
-        <v>212570</v>
+        <v>134816</v>
       </c>
       <c r="AI59" s="11">
-        <v>170762</v>
+        <v>101850</v>
       </c>
       <c r="AJ59" s="11">
-        <v>213243</v>
+        <v>210292</v>
       </c>
       <c r="AK59" s="11">
-        <v>134816</v>
+        <v>75799</v>
       </c>
       <c r="AL59" s="11">
-        <v>101850</v>
+        <v>1532</v>
       </c>
       <c r="AM59" s="11">
-        <v>210292</v>
+        <v>413</v>
       </c>
       <c r="AN59" s="11">
-        <v>75799</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="11">
-        <v>1532</v>
-      </c>
-      <c r="AP59" s="11">
-        <v>413</v>
-      </c>
-      <c r="AQ59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS59" s="11" t="s">
         <v>58</v>
@@ -7662,7 +7662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7745,50 +7745,50 @@
       <c r="AC60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF60" s="13" t="s">
-        <v>58</v>
+      <c r="AD60" s="13">
+        <v>109104</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>170884</v>
+      </c>
+      <c r="AF60" s="13">
+        <v>199951</v>
       </c>
       <c r="AG60" s="13">
-        <v>109104</v>
+        <v>258438</v>
       </c>
       <c r="AH60" s="13">
-        <v>170884</v>
+        <v>179961</v>
       </c>
       <c r="AI60" s="13">
-        <v>199951</v>
+        <v>136185</v>
       </c>
       <c r="AJ60" s="13">
-        <v>258438</v>
+        <v>180893</v>
       </c>
       <c r="AK60" s="13">
-        <v>179961</v>
+        <v>115569</v>
       </c>
       <c r="AL60" s="13">
-        <v>136185</v>
+        <v>38574</v>
       </c>
       <c r="AM60" s="13">
-        <v>180893</v>
+        <v>36676</v>
       </c>
       <c r="AN60" s="13">
-        <v>115569</v>
+        <v>21180</v>
       </c>
       <c r="AO60" s="13">
-        <v>38574</v>
-      </c>
-      <c r="AP60" s="13">
-        <v>36676</v>
-      </c>
-      <c r="AQ60" s="13">
-        <v>21180</v>
-      </c>
-      <c r="AR60" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS60" s="13" t="s">
         <v>58</v>
@@ -7821,7 +7821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>62</v>
       </c>
@@ -7940,20 +7940,20 @@
       <c r="AO61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
+      <c r="AP61" s="11">
+        <v>299657</v>
+      </c>
+      <c r="AQ61" s="11">
+        <v>588651</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS61" s="11">
-        <v>299657</v>
-      </c>
-      <c r="AT61" s="11">
-        <v>588651</v>
+      <c r="AS61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU61" s="11" t="s">
         <v>58</v>
@@ -7980,7 +7980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>63</v>
       </c>
@@ -8096,8 +8096,8 @@
       <c r="AN62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO62" s="13" t="s">
-        <v>58</v>
+      <c r="AO62" s="13">
+        <v>340894</v>
       </c>
       <c r="AP62" s="13" t="s">
         <v>58</v>
@@ -8105,8 +8105,8 @@
       <c r="AQ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="13">
-        <v>340894</v>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>58</v>
@@ -8139,7 +8139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>64</v>
       </c>
@@ -8243,26 +8243,26 @@
       <c r="AJ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK63" s="11" t="s">
-        <v>58</v>
+      <c r="AK63" s="11">
+        <v>385195</v>
       </c>
       <c r="AL63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM63" s="11" t="s">
-        <v>58</v>
+      <c r="AM63" s="11">
+        <v>389219</v>
       </c>
       <c r="AN63" s="11">
-        <v>385195</v>
+        <v>512433</v>
       </c>
       <c r="AO63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP63" s="11">
-        <v>389219</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>512433</v>
+      <c r="AP63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>58</v>
@@ -8298,7 +8298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>73</v>
       </c>
@@ -8380,82 +8380,82 @@
         <v>0</v>
       </c>
       <c r="AD64" s="15">
-        <v>0</v>
+        <v>277077</v>
       </c>
       <c r="AE64" s="15">
-        <v>0</v>
+        <v>389675</v>
       </c>
       <c r="AF64" s="15">
-        <v>0</v>
+        <v>375744</v>
       </c>
       <c r="AG64" s="15">
-        <v>277077</v>
+        <v>471681</v>
       </c>
       <c r="AH64" s="15">
-        <v>389675</v>
+        <v>314777</v>
       </c>
       <c r="AI64" s="15">
-        <v>375744</v>
+        <v>238035</v>
       </c>
       <c r="AJ64" s="15">
-        <v>471681</v>
+        <v>391185</v>
       </c>
       <c r="AK64" s="15">
-        <v>314777</v>
+        <v>576563</v>
       </c>
       <c r="AL64" s="15">
-        <v>238035</v>
+        <v>40106</v>
       </c>
       <c r="AM64" s="15">
-        <v>391185</v>
+        <v>426308</v>
       </c>
       <c r="AN64" s="15">
-        <v>576563</v>
+        <v>533613</v>
       </c>
       <c r="AO64" s="15">
-        <v>40106</v>
+        <v>340894</v>
       </c>
       <c r="AP64" s="15">
-        <v>426308</v>
+        <v>299657</v>
       </c>
       <c r="AQ64" s="15">
-        <v>533613</v>
+        <v>588651</v>
       </c>
       <c r="AR64" s="15">
-        <v>340894</v>
+        <v>385179</v>
       </c>
       <c r="AS64" s="15">
-        <v>299657</v>
+        <v>470299</v>
       </c>
       <c r="AT64" s="15">
-        <v>588651</v>
+        <v>866648</v>
       </c>
       <c r="AU64" s="15">
-        <v>385179</v>
+        <v>1228035</v>
       </c>
       <c r="AV64" s="15">
-        <v>470299</v>
+        <v>727087</v>
       </c>
       <c r="AW64" s="15">
-        <v>866648</v>
+        <v>733608</v>
       </c>
       <c r="AX64" s="15">
-        <v>1228034</v>
+        <v>669095</v>
       </c>
       <c r="AY64" s="15">
-        <v>727088</v>
+        <v>574762</v>
       </c>
       <c r="AZ64" s="15">
-        <v>733608</v>
+        <v>503015</v>
       </c>
       <c r="BA64" s="15">
-        <v>669095</v>
+        <v>387507</v>
       </c>
       <c r="BB64" s="15">
-        <v>574762</v>
+        <v>645067</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>81</v>
       </c>
@@ -8512,7 +8512,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8595,83 +8595,83 @@
       <c r="AC66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF66" s="11" t="s">
-        <v>58</v>
+      <c r="AD66" s="11">
+        <v>210693</v>
+      </c>
+      <c r="AE66" s="11">
+        <v>47940</v>
+      </c>
+      <c r="AF66" s="11">
+        <v>60971</v>
       </c>
       <c r="AG66" s="11">
-        <v>210693</v>
+        <v>181574</v>
       </c>
       <c r="AH66" s="11">
-        <v>47940</v>
+        <v>1870</v>
       </c>
       <c r="AI66" s="11">
-        <v>60971</v>
+        <v>83704</v>
       </c>
       <c r="AJ66" s="11">
-        <v>181574</v>
+        <v>185645</v>
       </c>
       <c r="AK66" s="11">
-        <v>1870</v>
+        <v>17978</v>
       </c>
       <c r="AL66" s="11">
-        <v>83704</v>
+        <v>66588</v>
       </c>
       <c r="AM66" s="11">
-        <v>185645</v>
+        <v>3076</v>
       </c>
       <c r="AN66" s="11">
-        <v>17978</v>
+        <v>295166</v>
       </c>
       <c r="AO66" s="11">
-        <v>66588</v>
+        <v>319516</v>
       </c>
       <c r="AP66" s="11">
-        <v>3076</v>
+        <v>93227</v>
       </c>
       <c r="AQ66" s="11">
-        <v>295166</v>
+        <v>508590</v>
       </c>
       <c r="AR66" s="11">
-        <v>319516</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="11">
-        <v>93227</v>
+        <v>379690</v>
       </c>
       <c r="AT66" s="11">
-        <v>508590</v>
+        <v>574384</v>
       </c>
       <c r="AU66" s="11">
-        <v>0</v>
+        <v>91125</v>
       </c>
       <c r="AV66" s="11">
-        <v>379690</v>
+        <v>582143</v>
       </c>
       <c r="AW66" s="11">
-        <v>574384</v>
+        <v>137287</v>
       </c>
       <c r="AX66" s="11">
-        <v>91125</v>
+        <v>4964</v>
       </c>
       <c r="AY66" s="11">
-        <v>582143</v>
+        <v>416134</v>
       </c>
       <c r="AZ66" s="11">
-        <v>137287</v>
+        <v>79316</v>
       </c>
       <c r="BA66" s="11">
-        <v>4964</v>
+        <v>1387</v>
       </c>
       <c r="BB66" s="11">
-        <v>416134</v>
+        <v>372215</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>60</v>
       </c>
@@ -8754,14 +8754,14 @@
       <c r="AC67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF67" s="13" t="s">
-        <v>58</v>
+      <c r="AD67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="13">
+        <v>0</v>
       </c>
       <c r="AG67" s="13">
         <v>0</v>
@@ -8790,14 +8790,14 @@
       <c r="AO67" s="13">
         <v>0</v>
       </c>
-      <c r="AP67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="13">
-        <v>0</v>
+      <c r="AP67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS67" s="13" t="s">
         <v>58</v>
@@ -8830,7 +8830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>61</v>
       </c>
@@ -8913,14 +8913,14 @@
       <c r="AC68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF68" s="11" t="s">
-        <v>58</v>
+      <c r="AD68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="11">
+        <v>0</v>
       </c>
       <c r="AG68" s="11">
         <v>0</v>
@@ -8949,14 +8949,14 @@
       <c r="AO68" s="11">
         <v>0</v>
       </c>
-      <c r="AP68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="11">
-        <v>0</v>
+      <c r="AP68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>58</v>
@@ -8989,7 +8989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>75</v>
       </c>
@@ -9071,82 +9071,82 @@
         <v>0</v>
       </c>
       <c r="AD69" s="15">
-        <v>0</v>
+        <v>210693</v>
       </c>
       <c r="AE69" s="15">
-        <v>0</v>
+        <v>47940</v>
       </c>
       <c r="AF69" s="15">
-        <v>0</v>
+        <v>60971</v>
       </c>
       <c r="AG69" s="15">
-        <v>210693</v>
+        <v>181574</v>
       </c>
       <c r="AH69" s="15">
-        <v>47940</v>
+        <v>1870</v>
       </c>
       <c r="AI69" s="15">
-        <v>60971</v>
+        <v>83704</v>
       </c>
       <c r="AJ69" s="15">
-        <v>181574</v>
+        <v>185645</v>
       </c>
       <c r="AK69" s="15">
-        <v>1870</v>
+        <v>17978</v>
       </c>
       <c r="AL69" s="15">
-        <v>83704</v>
+        <v>66588</v>
       </c>
       <c r="AM69" s="15">
-        <v>185645</v>
+        <v>3076</v>
       </c>
       <c r="AN69" s="15">
-        <v>17978</v>
+        <v>295166</v>
       </c>
       <c r="AO69" s="15">
-        <v>66588</v>
+        <v>319516</v>
       </c>
       <c r="AP69" s="15">
-        <v>3076</v>
+        <v>93227</v>
       </c>
       <c r="AQ69" s="15">
-        <v>295166</v>
+        <v>508590</v>
       </c>
       <c r="AR69" s="15">
-        <v>319516</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="15">
-        <v>93227</v>
+        <v>379690</v>
       </c>
       <c r="AT69" s="15">
-        <v>508590</v>
+        <v>574384</v>
       </c>
       <c r="AU69" s="15">
-        <v>0</v>
+        <v>91125</v>
       </c>
       <c r="AV69" s="15">
-        <v>379690</v>
+        <v>582143</v>
       </c>
       <c r="AW69" s="15">
-        <v>574384</v>
+        <v>137287</v>
       </c>
       <c r="AX69" s="15">
-        <v>91125</v>
+        <v>4964</v>
       </c>
       <c r="AY69" s="15">
-        <v>582143</v>
+        <v>416134</v>
       </c>
       <c r="AZ69" s="15">
-        <v>137287</v>
+        <v>79316</v>
       </c>
       <c r="BA69" s="15">
-        <v>4964</v>
+        <v>1387</v>
       </c>
       <c r="BB69" s="15">
-        <v>416134</v>
+        <v>372215</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>82</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="BA70" s="17"/>
       <c r="BB70" s="17"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>69</v>
       </c>
@@ -9286,14 +9286,14 @@
       <c r="AC71" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD71" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE71" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF71" s="19" t="s">
-        <v>58</v>
+      <c r="AD71" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="19">
+        <v>0</v>
       </c>
       <c r="AG71" s="19">
         <v>0</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>83</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="BA72" s="17"/>
       <c r="BB72" s="17"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>77</v>
       </c>
@@ -9502,14 +9502,14 @@
       <c r="AC73" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD73" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE73" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF73" s="19" t="s">
-        <v>58</v>
+      <c r="AD73" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="19">
+        <v>0</v>
       </c>
       <c r="AG73" s="19">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>84</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>85</v>
       </c>
@@ -9718,14 +9718,14 @@
       <c r="AC75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF75" s="11" t="s">
-        <v>58</v>
+      <c r="AD75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="11">
+        <v>0</v>
       </c>
       <c r="AG75" s="11">
         <v>0</v>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>70</v>
       </c>
@@ -9876,82 +9876,82 @@
         <v>0</v>
       </c>
       <c r="AD76" s="15">
-        <v>0</v>
+        <v>487770</v>
       </c>
       <c r="AE76" s="15">
-        <v>0</v>
+        <v>437615</v>
       </c>
       <c r="AF76" s="15">
-        <v>0</v>
+        <v>436715</v>
       </c>
       <c r="AG76" s="15">
-        <v>487770</v>
+        <v>653255</v>
       </c>
       <c r="AH76" s="15">
-        <v>437615</v>
+        <v>316647</v>
       </c>
       <c r="AI76" s="15">
-        <v>436715</v>
+        <v>321739</v>
       </c>
       <c r="AJ76" s="15">
-        <v>653255</v>
+        <v>576830</v>
       </c>
       <c r="AK76" s="15">
-        <v>316647</v>
+        <v>594541</v>
       </c>
       <c r="AL76" s="15">
-        <v>321739</v>
+        <v>106694</v>
       </c>
       <c r="AM76" s="15">
-        <v>576830</v>
+        <v>429384</v>
       </c>
       <c r="AN76" s="15">
-        <v>594541</v>
+        <v>828779</v>
       </c>
       <c r="AO76" s="15">
-        <v>106694</v>
+        <v>660410</v>
       </c>
       <c r="AP76" s="15">
-        <v>429384</v>
+        <v>392884</v>
       </c>
       <c r="AQ76" s="15">
-        <v>828779</v>
+        <v>1097241</v>
       </c>
       <c r="AR76" s="15">
-        <v>660410</v>
+        <v>385179</v>
       </c>
       <c r="AS76" s="15">
-        <v>392884</v>
+        <v>849989</v>
       </c>
       <c r="AT76" s="15">
-        <v>1097241</v>
+        <v>1441032</v>
       </c>
       <c r="AU76" s="15">
-        <v>385179</v>
+        <v>1319160</v>
       </c>
       <c r="AV76" s="15">
-        <v>849989</v>
+        <v>1309230</v>
       </c>
       <c r="AW76" s="15">
-        <v>1441032</v>
+        <v>870895</v>
       </c>
       <c r="AX76" s="15">
-        <v>1319159</v>
+        <v>674059</v>
       </c>
       <c r="AY76" s="15">
-        <v>1309231</v>
+        <v>990896</v>
       </c>
       <c r="AZ76" s="15">
-        <v>870895</v>
+        <v>582331</v>
       </c>
       <c r="BA76" s="15">
-        <v>674059</v>
+        <v>388894</v>
       </c>
       <c r="BB76" s="15">
-        <v>990896</v>
+        <v>1017282</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10006,7 +10006,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10061,7 +10061,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10116,7 +10116,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>86</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10328,7 +10328,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>87</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
@@ -10468,24 +10468,24 @@
       <c r="AC83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG83" s="11">
+      <c r="AD83" s="11">
         <v>1201785</v>
       </c>
-      <c r="AH83" s="11">
+      <c r="AE83" s="11">
         <v>1201661</v>
       </c>
-      <c r="AI83" s="11">
+      <c r="AF83" s="11">
         <v>1201863</v>
       </c>
+      <c r="AG83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ83" s="11" t="s">
         <v>58</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>59</v>
       </c>
@@ -10669,41 +10669,41 @@
       <c r="AQ84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT84" s="13" t="s">
-        <v>58</v>
+      <c r="AR84" s="13">
+        <v>5048813</v>
+      </c>
+      <c r="AS84" s="13">
+        <v>5049974</v>
+      </c>
+      <c r="AT84" s="13">
+        <v>5658670</v>
       </c>
       <c r="AU84" s="13">
-        <v>5048813</v>
+        <v>7572143</v>
       </c>
       <c r="AV84" s="13">
-        <v>5049974</v>
+        <v>6750664</v>
       </c>
       <c r="AW84" s="13">
-        <v>5658670</v>
+        <v>6539795</v>
       </c>
       <c r="AX84" s="13">
-        <v>7572141</v>
+        <v>6300745</v>
       </c>
       <c r="AY84" s="13">
-        <v>6750665</v>
+        <v>6135507</v>
       </c>
       <c r="AZ84" s="13">
-        <v>6539795</v>
+        <v>5912885</v>
       </c>
       <c r="BA84" s="13">
-        <v>6300745</v>
+        <v>5481314</v>
       </c>
       <c r="BB84" s="13">
-        <v>6135507</v>
+        <v>5966324</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>60</v>
       </c>
@@ -10786,45 +10786,45 @@
       <c r="AC85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF85" s="11" t="s">
-        <v>58</v>
+      <c r="AD85" s="11">
+        <v>2224752</v>
+      </c>
+      <c r="AE85" s="11">
+        <v>2212727</v>
+      </c>
+      <c r="AF85" s="11">
+        <v>2254165</v>
       </c>
       <c r="AG85" s="11">
-        <v>2224752</v>
+        <v>3115128</v>
       </c>
       <c r="AH85" s="11">
-        <v>2212727</v>
+        <v>3086730</v>
       </c>
       <c r="AI85" s="11">
-        <v>2254165</v>
+        <v>3147501</v>
       </c>
       <c r="AJ85" s="11">
-        <v>3115128</v>
+        <v>3429867</v>
       </c>
       <c r="AK85" s="11">
-        <v>3086730</v>
+        <v>3578125</v>
       </c>
       <c r="AL85" s="11">
-        <v>3147501</v>
+        <v>3878481</v>
       </c>
       <c r="AM85" s="11">
-        <v>3429867</v>
-      </c>
-      <c r="AN85" s="11">
-        <v>3578125</v>
-      </c>
-      <c r="AO85" s="11">
-        <v>3878481</v>
-      </c>
-      <c r="AP85" s="11">
         <v>2735099</v>
       </c>
+      <c r="AN85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ85" s="11" t="s">
         <v>58</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>61</v>
       </c>
@@ -10945,48 +10945,48 @@
       <c r="AC86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF86" s="13" t="s">
-        <v>58</v>
+      <c r="AD86" s="13">
+        <v>3215846</v>
+      </c>
+      <c r="AE86" s="13">
+        <v>3202414</v>
+      </c>
+      <c r="AF86" s="13">
+        <v>3369866</v>
       </c>
       <c r="AG86" s="13">
-        <v>3215846</v>
+        <v>4349344</v>
       </c>
       <c r="AH86" s="13">
-        <v>3202414</v>
+        <v>4358887</v>
       </c>
       <c r="AI86" s="13">
-        <v>3369866</v>
+        <v>4408994</v>
       </c>
       <c r="AJ86" s="13">
-        <v>4349344</v>
+        <v>4524814</v>
       </c>
       <c r="AK86" s="13">
-        <v>4358887</v>
+        <v>5016016</v>
       </c>
       <c r="AL86" s="13">
-        <v>4408994</v>
+        <v>5379166</v>
       </c>
       <c r="AM86" s="13">
-        <v>4524814</v>
+        <v>5419832</v>
       </c>
       <c r="AN86" s="13">
-        <v>5016016</v>
-      </c>
-      <c r="AO86" s="13">
-        <v>5379166</v>
-      </c>
-      <c r="AP86" s="13">
-        <v>5419832</v>
-      </c>
-      <c r="AQ86" s="13">
         <v>5522816</v>
       </c>
+      <c r="AO86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR86" s="13" t="s">
         <v>58</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>62</v>
       </c>
@@ -11140,20 +11140,20 @@
       <c r="AO87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ87" s="11" t="s">
-        <v>58</v>
+      <c r="AP87" s="11">
+        <v>4186381</v>
+      </c>
+      <c r="AQ87" s="11">
+        <v>4739045</v>
       </c>
       <c r="AR87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS87" s="11">
-        <v>4186381</v>
-      </c>
-      <c r="AT87" s="11">
-        <v>4739045</v>
+      <c r="AS87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT87" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU87" s="11" t="s">
         <v>58</v>
@@ -11180,7 +11180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>63</v>
       </c>
@@ -11296,8 +11296,8 @@
       <c r="AN88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO88" s="13" t="s">
-        <v>58</v>
+      <c r="AO88" s="13">
+        <v>3540101</v>
       </c>
       <c r="AP88" s="13" t="s">
         <v>58</v>
@@ -11305,8 +11305,8 @@
       <c r="AQ88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="13">
-        <v>3540101</v>
+      <c r="AR88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>58</v>
@@ -11339,7 +11339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>64</v>
       </c>
@@ -11443,26 +11443,26 @@
       <c r="AJ89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK89" s="11" t="s">
-        <v>58</v>
+      <c r="AK89" s="11">
+        <v>4436299</v>
       </c>
       <c r="AL89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM89" s="11" t="s">
-        <v>58</v>
+      <c r="AM89" s="11">
+        <v>3857090</v>
       </c>
       <c r="AN89" s="11">
-        <v>4436299</v>
+        <v>3988519</v>
       </c>
       <c r="AO89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP89" s="11">
-        <v>3857090</v>
-      </c>
-      <c r="AQ89" s="11">
-        <v>3988519</v>
+      <c r="AP89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR89" s="11" t="s">
         <v>58</v>
@@ -11498,7 +11498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>89</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="BA90" s="9"/>
       <c r="BB90" s="9"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>56</v>
       </c>
@@ -11638,80 +11638,80 @@
       <c r="AC91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF91" s="11" t="s">
-        <v>58</v>
+      <c r="AD91" s="11">
+        <v>4896763</v>
+      </c>
+      <c r="AE91" s="11">
+        <v>4479537</v>
+      </c>
+      <c r="AF91" s="11">
+        <v>4479539</v>
       </c>
       <c r="AG91" s="11">
-        <v>4896763</v>
+        <v>4656579</v>
       </c>
       <c r="AH91" s="11">
-        <v>4479537</v>
+        <v>4259681</v>
       </c>
       <c r="AI91" s="11">
-        <v>4479539</v>
+        <v>5190624</v>
       </c>
       <c r="AJ91" s="11">
-        <v>4656579</v>
+        <v>5865561</v>
       </c>
       <c r="AK91" s="11">
-        <v>4259681</v>
+        <v>4768700</v>
       </c>
       <c r="AL91" s="11">
-        <v>5190624</v>
+        <v>4945266</v>
       </c>
       <c r="AM91" s="11">
-        <v>5865561</v>
+        <v>5405975</v>
       </c>
       <c r="AN91" s="11">
-        <v>4768700</v>
+        <v>5196585</v>
       </c>
       <c r="AO91" s="11">
-        <v>4945266</v>
+        <v>5597099</v>
       </c>
       <c r="AP91" s="11">
-        <v>5405975</v>
+        <v>5844220</v>
       </c>
       <c r="AQ91" s="11">
-        <v>5196585</v>
-      </c>
-      <c r="AR91" s="11">
-        <v>5597099</v>
+        <v>5513649</v>
+      </c>
+      <c r="AR91" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS91" s="11">
-        <v>5844220</v>
+        <v>5901489</v>
       </c>
       <c r="AT91" s="11">
-        <v>5513649</v>
-      </c>
-      <c r="AU91" s="11" t="s">
-        <v>58</v>
+        <v>6539799</v>
+      </c>
+      <c r="AU91" s="11">
+        <v>6740513</v>
       </c>
       <c r="AV91" s="11">
-        <v>5901489</v>
+        <v>7736531</v>
       </c>
       <c r="AW91" s="11">
-        <v>6539799</v>
+        <v>7440223</v>
       </c>
       <c r="AX91" s="11">
-        <v>6740513</v>
+        <v>6962132</v>
       </c>
       <c r="AY91" s="11">
-        <v>7736531</v>
+        <v>8592661</v>
       </c>
       <c r="AZ91" s="11">
-        <v>7440223</v>
+        <v>9279981</v>
       </c>
       <c r="BA91" s="11">
-        <v>6962132</v>
+        <v>7456989</v>
       </c>
       <c r="BB91" s="11">
-        <v>8592661</v>
+        <v>8185587</v>
       </c>
     </row>
   </sheetData>
